--- a/Template/Export/Sari_Cases_18.xlsx
+++ b/Template/Export/Sari_Cases_18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\Template\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="229">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>last_name_2</t>
   </si>
   <si>
-    <t>date_of_birthday</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -90,18 +87,6 @@
     <t>work_market_live_animals</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>resort</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>urban_rural</t>
   </si>
   <si>
@@ -174,30 +159,12 @@
     <t>puerperium</t>
   </si>
   <si>
-    <t>quarter</t>
-  </si>
-  <si>
     <t>source_vaccine</t>
   </si>
   <si>
     <t>vaccine_influenza</t>
   </si>
   <si>
-    <t>first_dose</t>
-  </si>
-  <si>
-    <t>second_dose</t>
-  </si>
-  <si>
-    <t>Neumococo</t>
-  </si>
-  <si>
-    <t>Neumococo_fecha</t>
-  </si>
-  <si>
-    <t>Neumococo_dosis</t>
-  </si>
-  <si>
     <t>antiviral</t>
   </si>
   <si>
@@ -210,9 +177,6 @@
     <t>risk_factor</t>
   </si>
   <si>
-    <t xml:space="preserve"> chronic_cardiopathy                                     </t>
-  </si>
-  <si>
     <t>diabetes</t>
   </si>
   <si>
@@ -231,9 +195,6 @@
     <t>chronic_renal</t>
   </si>
   <si>
-    <t>inmuno</t>
-  </si>
-  <si>
     <t>cerebral_palsy</t>
   </si>
   <si>
@@ -258,9 +219,6 @@
     <t>prematurity</t>
   </si>
   <si>
-    <t>LBW</t>
-  </si>
-  <si>
     <t xml:space="preserve">lack_of_breastfeeding </t>
   </si>
   <si>
@@ -297,18 +255,9 @@
     <t>cough</t>
   </si>
   <si>
-    <t>dif_breathing</t>
-  </si>
-  <si>
     <t>headache</t>
   </si>
   <si>
-    <t>eruption</t>
-  </si>
-  <si>
-    <t>eruption_location</t>
-  </si>
-  <si>
     <t>muscle_pain</t>
   </si>
   <si>
@@ -339,12 +288,6 @@
     <t>rhinitis</t>
   </si>
   <si>
-    <t>acute_diarrhea</t>
-  </si>
-  <si>
-    <t>chronic_diarrhea</t>
-  </si>
-  <si>
     <t>dizziness</t>
   </si>
   <si>
@@ -360,12 +303,6 @@
     <t>lymphadenopathy</t>
   </si>
   <si>
-    <t>discomfort</t>
-  </si>
-  <si>
-    <t>sickness</t>
-  </si>
-  <si>
     <t>stiff_neck</t>
   </si>
   <si>
@@ -390,9 +327,6 @@
     <t>description_other</t>
   </si>
   <si>
-    <t>salon</t>
-  </si>
-  <si>
     <t>diag_adm_CIE10</t>
   </si>
   <si>
@@ -474,229 +408,304 @@
     <t>observations</t>
   </si>
   <si>
-    <t>Result_final</t>
-  </si>
-  <si>
-    <t>Res_fin_Virus</t>
-  </si>
-  <si>
-    <t>Res_fin_Subtipo</t>
-  </si>
-  <si>
-    <t>Res_fin_Linaje</t>
-  </si>
-  <si>
-    <t>Result_final_2</t>
-  </si>
-  <si>
-    <t>Res_fin_Virus_2</t>
-  </si>
-  <si>
-    <t>Res_fin_Subtipo_2</t>
-  </si>
-  <si>
-    <t>Res_fin_Linaje_2</t>
-  </si>
-  <si>
-    <t>Result_final_3</t>
-  </si>
-  <si>
-    <t>Res_fin_Virus_3</t>
-  </si>
-  <si>
-    <t>Res_fin_Subtipo_3</t>
-  </si>
-  <si>
-    <t>Res_fin_Linaje_3</t>
-  </si>
-  <si>
-    <t>lab_proceso_1</t>
-  </si>
-  <si>
-    <t>procesado_proceso_1</t>
-  </si>
-  <si>
-    <t>sample_number_process_1</t>
-  </si>
-  <si>
-    <t>observaciones_proceso_1</t>
-  </si>
-  <si>
-    <t>fecha_ini_proceso_1</t>
-  </si>
-  <si>
-    <t>fecha_fin_proceso_1</t>
-  </si>
-  <si>
-    <t>tipo_proceso_proceso_1</t>
-  </si>
-  <si>
-    <t>resultado_proceso_1</t>
-  </si>
-  <si>
-    <t>virus_proceso_1</t>
-  </si>
-  <si>
-    <t>subtipo_proceso_1</t>
-  </si>
-  <si>
-    <t>linaje_proceso_1</t>
-  </si>
-  <si>
-    <t>lab_proceso_2</t>
-  </si>
-  <si>
-    <t>procesado_proceso_2</t>
-  </si>
-  <si>
-    <t>sample_number_process_2</t>
-  </si>
-  <si>
-    <t>observaciones_proceso_2</t>
-  </si>
-  <si>
-    <t>fecha_ini_proceso_2</t>
-  </si>
-  <si>
-    <t>fecha_fin_proceso_2</t>
-  </si>
-  <si>
-    <t>tipo_proceso_proceso_2</t>
-  </si>
-  <si>
-    <t>resultado_proceso_2</t>
-  </si>
-  <si>
-    <t>virus_proceso_2</t>
-  </si>
-  <si>
-    <t>subtipo_proceso_2</t>
-  </si>
-  <si>
-    <t>linaje_proceso_2</t>
-  </si>
-  <si>
-    <t>lab_proceso_3</t>
-  </si>
-  <si>
-    <t>procesado_proceso_3</t>
-  </si>
-  <si>
-    <t>sample_number_process_3</t>
-  </si>
-  <si>
-    <t>observaciones_proceso_3</t>
-  </si>
-  <si>
-    <t>fecha_ini_proceso_3</t>
-  </si>
-  <si>
-    <t>fecha_fin_proceso_3</t>
-  </si>
-  <si>
-    <t>tipo_proceso_proceso_3</t>
-  </si>
-  <si>
-    <t>resultado_proceso_3</t>
-  </si>
-  <si>
-    <t>virus_proceso_3</t>
-  </si>
-  <si>
-    <t>subtipo_proceso_3</t>
-  </si>
-  <si>
-    <t>linaje_proceso_3</t>
-  </si>
-  <si>
-    <t>lab_proceso_4</t>
-  </si>
-  <si>
-    <t>procesado_proceso_4</t>
-  </si>
-  <si>
-    <t>observaciones_proceso_4</t>
-  </si>
-  <si>
-    <t>fecha_ini_proceso_4</t>
-  </si>
-  <si>
-    <t>fecha_fin_proceso_4</t>
-  </si>
-  <si>
-    <t>tipo_proceso_proceso_4</t>
-  </si>
-  <si>
-    <t>resultado_proceso_4</t>
-  </si>
-  <si>
-    <t>virus_proceso_4</t>
-  </si>
-  <si>
-    <t>subtipo_proceso_4</t>
-  </si>
-  <si>
-    <t>linaje_proceso_4</t>
-  </si>
-  <si>
-    <t>lab_proceso_5</t>
-  </si>
-  <si>
-    <t>procesado_proceso_5</t>
-  </si>
-  <si>
-    <t>observaciones_proceso_5</t>
-  </si>
-  <si>
-    <t>fecha_ini_proceso_5</t>
-  </si>
-  <si>
-    <t>fecha_fin_proceso_5</t>
-  </si>
-  <si>
-    <t>tipo_proceso_proceso_5</t>
-  </si>
-  <si>
-    <t>resultado_proceso_5</t>
-  </si>
-  <si>
-    <t>virus_proceso_5</t>
-  </si>
-  <si>
-    <t>subtipo_proceso_5</t>
-  </si>
-  <si>
-    <t>linaje_proceso_5</t>
-  </si>
-  <si>
-    <t>lab_proceso_6</t>
-  </si>
-  <si>
-    <t>procesado_proceso_6</t>
-  </si>
-  <si>
-    <t>observaciones_proceso_6</t>
-  </si>
-  <si>
-    <t>fecha_ini_proceso_6</t>
-  </si>
-  <si>
-    <t>fecha_fin_proceso_6</t>
-  </si>
-  <si>
-    <t>tipo_proceso_proceso_6</t>
-  </si>
-  <si>
-    <t>resultado_proceso_6</t>
-  </si>
-  <si>
-    <t>virus_proceso_6</t>
-  </si>
-  <si>
-    <t>subtipo_proceso_6</t>
-  </si>
-  <si>
-    <t>linaje_proceso_6</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>first_dose_date</t>
+  </si>
+  <si>
+    <t>second_dose_date</t>
+  </si>
+  <si>
+    <t>pneumococcal_vac.</t>
+  </si>
+  <si>
+    <t>neumococo_date</t>
+  </si>
+  <si>
+    <t>neumococo_dose</t>
+  </si>
+  <si>
+    <t>chronic_heart_disease</t>
+  </si>
+  <si>
+    <t>immunological_treat_or_disease</t>
+  </si>
+  <si>
+    <t>low_birthweight</t>
+  </si>
+  <si>
+    <t>breathing_difficulty</t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>rash_location</t>
+  </si>
+  <si>
+    <t>acute_diarrhoea</t>
+  </si>
+  <si>
+    <t>chronic_diarrhoea</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>med_department</t>
+  </si>
+  <si>
+    <t>lab_process1</t>
+  </si>
+  <si>
+    <t>process1</t>
+  </si>
+  <si>
+    <t>sample_number_process1</t>
+  </si>
+  <si>
+    <t>process1_observations</t>
+  </si>
+  <si>
+    <t>start_date_process1</t>
+  </si>
+  <si>
+    <t>end_date_process1</t>
+  </si>
+  <si>
+    <t>process1_type</t>
+  </si>
+  <si>
+    <t>process1_result</t>
+  </si>
+  <si>
+    <t>process1_virus</t>
+  </si>
+  <si>
+    <t>process1_subtype</t>
+  </si>
+  <si>
+    <t>process1_lineage</t>
+  </si>
+  <si>
+    <t>lab_process2</t>
+  </si>
+  <si>
+    <t>process2</t>
+  </si>
+  <si>
+    <t>sample_number_process2</t>
+  </si>
+  <si>
+    <t>process2_observations</t>
+  </si>
+  <si>
+    <t>start_date_process2</t>
+  </si>
+  <si>
+    <t>end_date_process2</t>
+  </si>
+  <si>
+    <t>process2_type</t>
+  </si>
+  <si>
+    <t>process2_result</t>
+  </si>
+  <si>
+    <t>process2_virus</t>
+  </si>
+  <si>
+    <t>process2_subtype</t>
+  </si>
+  <si>
+    <t>process2_lineage</t>
+  </si>
+  <si>
+    <t>lab_process3</t>
+  </si>
+  <si>
+    <t>process3</t>
+  </si>
+  <si>
+    <t>sample_number_process3</t>
+  </si>
+  <si>
+    <t>process3_observations</t>
+  </si>
+  <si>
+    <t>start_date_process3</t>
+  </si>
+  <si>
+    <t>end_date_process3</t>
+  </si>
+  <si>
+    <t>process3_type</t>
+  </si>
+  <si>
+    <t>process3_result</t>
+  </si>
+  <si>
+    <t>process3_virus</t>
+  </si>
+  <si>
+    <t>process3_subtype</t>
+  </si>
+  <si>
+    <t>process3_lineage</t>
+  </si>
+  <si>
+    <t>lab_process4</t>
+  </si>
+  <si>
+    <t>process4</t>
+  </si>
+  <si>
+    <t>sample_number_process4</t>
+  </si>
+  <si>
+    <t>process4_observations</t>
+  </si>
+  <si>
+    <t>start_date_process4</t>
+  </si>
+  <si>
+    <t>end_date_process4</t>
+  </si>
+  <si>
+    <t>process4_type</t>
+  </si>
+  <si>
+    <t>process4_result</t>
+  </si>
+  <si>
+    <t>process4_virus</t>
+  </si>
+  <si>
+    <t>process4_subtype</t>
+  </si>
+  <si>
+    <t>process4_lineage</t>
+  </si>
+  <si>
+    <t>lab_process5</t>
+  </si>
+  <si>
+    <t>process5</t>
+  </si>
+  <si>
+    <t>sample_number_process5</t>
+  </si>
+  <si>
+    <t>process5_observations</t>
+  </si>
+  <si>
+    <t>start_date_process5</t>
+  </si>
+  <si>
+    <t>end_date_process5</t>
+  </si>
+  <si>
+    <t>process5_type</t>
+  </si>
+  <si>
+    <t>process5_result</t>
+  </si>
+  <si>
+    <t>process5_virus</t>
+  </si>
+  <si>
+    <t>process5_subtype</t>
+  </si>
+  <si>
+    <t>process5_lineage</t>
+  </si>
+  <si>
+    <t>lab_process6</t>
+  </si>
+  <si>
+    <t>process6</t>
+  </si>
+  <si>
+    <t>sample_number_process6</t>
+  </si>
+  <si>
+    <t>process6_observations</t>
+  </si>
+  <si>
+    <t>start_date_process6</t>
+  </si>
+  <si>
+    <t>end_date_process6</t>
+  </si>
+  <si>
+    <t>process6_type</t>
+  </si>
+  <si>
+    <t>process6_result</t>
+  </si>
+  <si>
+    <t>process6_virus</t>
+  </si>
+  <si>
+    <t>process6_subtype</t>
+  </si>
+  <si>
+    <t>process6_lineage</t>
+  </si>
+  <si>
+    <t>final_result</t>
+  </si>
+  <si>
+    <t>final_res_virus</t>
+  </si>
+  <si>
+    <t>final_res_subtype</t>
+  </si>
+  <si>
+    <t>final_res_lineage</t>
+  </si>
+  <si>
+    <t>final_result2</t>
+  </si>
+  <si>
+    <t>final_res_virus2</t>
+  </si>
+  <si>
+    <t>final_res_subtype2</t>
+  </si>
+  <si>
+    <t>final_res_lineage2</t>
+  </si>
+  <si>
+    <t>final_result3</t>
+  </si>
+  <si>
+    <t>final_res_virus3</t>
+  </si>
+  <si>
+    <t>final_res_subtype3</t>
+  </si>
+  <si>
+    <t>final_res_lineage3</t>
   </si>
 </sst>
 </file>
@@ -705,9 +714,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd/mmm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -734,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +753,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,20 +784,20 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,9 +1102,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HR705"/>
+  <dimension ref="A1:HU705"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1093,10 +1114,10 @@
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -1108,10 +1129,10 @@
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.28515625" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" customWidth="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1"/>
-    <col min="26" max="26" width="33.140625" customWidth="1"/>
-    <col min="27" max="27" width="26.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1"/>
+    <col min="27" max="27" width="20.42578125" customWidth="1"/>
     <col min="28" max="28" width="17.42578125" customWidth="1"/>
     <col min="29" max="29" width="33.28515625" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -1126,828 +1147,903 @@
     <col min="49" max="49" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="14.5703125" style="2" customWidth="1"/>
-    <col min="57" max="59" width="13.140625" customWidth="1"/>
+    <col min="55" max="55" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="14.5703125" style="2" customWidth="1"/>
     <col min="62" max="62" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21" customWidth="1"/>
+    <col min="64" max="64" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="14.5703125" customWidth="1"/>
     <col min="69" max="69" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="16.140625" customWidth="1"/>
     <col min="77" max="77" width="22.140625" customWidth="1"/>
+    <col min="80" max="80" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="37.5703125" customWidth="1"/>
     <col min="87" max="87" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="123" width="13.42578125" customWidth="1"/>
+    <col min="93" max="93" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.42578125" customWidth="1"/>
+    <col min="95" max="95" width="5.7109375" customWidth="1"/>
+    <col min="96" max="96" width="13.85546875" customWidth="1"/>
+    <col min="97" max="106" width="13.42578125" customWidth="1"/>
+    <col min="107" max="107" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="13.42578125" customWidth="1"/>
+    <col min="112" max="112" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="114" max="122" width="13.42578125" customWidth="1"/>
+    <col min="123" max="123" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="129" max="130" width="21" style="2" customWidth="1"/>
-    <col min="131" max="131" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="9" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.42578125" style="13" customWidth="1"/>
+    <col min="133" max="133" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.42578125" style="8" customWidth="1"/>
     <col min="137" max="137" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="21" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="37.85546875" customWidth="1"/>
-    <col min="147" max="147" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="24.7109375" customWidth="1"/>
-    <col min="152" max="152" width="16.140625" customWidth="1"/>
-    <col min="153" max="153" width="21.140625" customWidth="1"/>
+    <col min="150" max="150" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="17.28515625" customWidth="1"/>
-    <col min="155" max="155" width="19.28515625" customWidth="1"/>
-    <col min="156" max="156" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="19.42578125" customWidth="1"/>
-    <col min="158" max="158" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="17.28515625" customWidth="1"/>
-    <col min="160" max="160" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="14" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="22.85546875" customWidth="1"/>
-    <col min="165" max="165" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="22.42578125" customWidth="1"/>
+    <col min="177" max="177" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="22.42578125" customWidth="1"/>
+    <col min="184" max="184" width="18" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="190" max="190" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="191" max="191" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="18" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="19.28515625" customWidth="1"/>
+    <col min="200" max="200" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="18" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="18.140625" customWidth="1"/>
+    <col min="211" max="211" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="18" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="19.5703125" customWidth="1"/>
+    <col min="222" max="222" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="23" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="18" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:226" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:229" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AG1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AH1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AI1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AK1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AL1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AM1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AN1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AO1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AP1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AR1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AS1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AT1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AU1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AV1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AW1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AX1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AY1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AZ1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="BB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="BC1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BO1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BP1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BR1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BS1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BV1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BW1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BX1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BY1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="CA1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="CB1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CC1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="CD1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="CE1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="CF1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="CG1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="CH1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="CK1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="CL1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="CM1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CN1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CO1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CP1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CQ1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="CS1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CT1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CU1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CV1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CW1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CX1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CY1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CZ1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="DA1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="DB1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="DC1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="DE1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="DF1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="DG1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="DH1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="DI1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="DJ1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="DK1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="DM1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="DN1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="DO1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="DP1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="DQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="DR1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="DS1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="DT1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="DV1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DW1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DX1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DY1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DZ1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="EA1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="EB1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="9" t="s">
+      <c r="EC1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="ED1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="EE1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="EF1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="EG1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="9" t="s">
+      <c r="EH1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="EI1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="EK1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="EL1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="EM1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="9" t="s">
+      <c r="EN1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="EO1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="EP1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="ER1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="7" t="s">
+      <c r="ES1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="ET1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="9" t="s">
+      <c r="EU1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EV1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="EW1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="EX1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="EY1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="EZ1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="FA1" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="FB1" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="FC1" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="FD1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="FE1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="FF1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="FG1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="FH1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="FI1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FK1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FL1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FM1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FN1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FO1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FP1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FR1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FS1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FT1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FU1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FV1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FW1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="GA1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="GB1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="GC1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="GD1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="GE1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="GF1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="GG1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="GH1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="GK1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GL1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GM1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GN1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GO1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GP1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GR1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GS1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GT1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GU1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GV1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GW1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GX1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GY1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="HA1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="HB1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="HC1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="HD1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="HE1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="HF1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="HG1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="HH1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="HI1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="HJ1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="HK1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HL1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HM1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HO1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HP1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HR1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HS1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HT1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HU1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HL1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="HM1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:226" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD2"/>
       <c r="DZ2"/>
     </row>
-    <row r="3" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD3"/>
       <c r="DZ3"/>
     </row>
-    <row r="4" spans="1:226" x14ac:dyDescent="0.25">
-      <c r="BD4"/>
+    <row r="4" spans="1:229" x14ac:dyDescent="0.25">
+      <c r="BC4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="DZ4"/>
     </row>
-    <row r="5" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD5"/>
       <c r="DZ5"/>
     </row>
-    <row r="6" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:229" ht="15.75" x14ac:dyDescent="0.25">
       <c r="BD6"/>
       <c r="DZ6"/>
-    </row>
-    <row r="7" spans="1:226" x14ac:dyDescent="0.25">
+      <c r="FK6" s="1"/>
+    </row>
+    <row r="7" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD7"/>
       <c r="DZ7"/>
-    </row>
-    <row r="8" spans="1:226" x14ac:dyDescent="0.25">
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+    </row>
+    <row r="8" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD8"/>
       <c r="DZ8"/>
     </row>
-    <row r="9" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD9"/>
       <c r="DZ9"/>
     </row>
-    <row r="10" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD10"/>
       <c r="DZ10"/>
     </row>
-    <row r="11" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD11"/>
       <c r="DZ11"/>
     </row>
-    <row r="12" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD12"/>
       <c r="DZ12"/>
     </row>
-    <row r="13" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD13"/>
       <c r="DZ13"/>
     </row>
-    <row r="14" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD14"/>
       <c r="DZ14"/>
     </row>
-    <row r="15" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD15"/>
       <c r="DZ15"/>
     </row>
-    <row r="16" spans="1:226" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:229" x14ac:dyDescent="0.25">
       <c r="BD16"/>
       <c r="DZ16"/>
     </row>

--- a/Template/Export/Sari_Cases_18.xlsx
+++ b/Template/Export/Sari_Cases_18.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>ID</t>
   </si>
@@ -781,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -790,7 +790,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1114,11 +1113,11 @@
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -1130,27 +1129,31 @@
     <col min="22" max="22" width="25.28515625" customWidth="1"/>
     <col min="23" max="23" width="23.42578125" customWidth="1"/>
     <col min="24" max="24" width="21.7109375" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" customWidth="1"/>
     <col min="28" max="28" width="17.42578125" customWidth="1"/>
-    <col min="29" max="29" width="33.28515625" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="38" width="9.7109375" customWidth="1"/>
     <col min="39" max="39" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="9.7109375" customWidth="1"/>
+    <col min="41" max="41" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.85546875" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" customWidth="1"/>
+    <col min="45" max="46" width="9.7109375" customWidth="1"/>
     <col min="47" max="47" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="14.5703125" style="2" customWidth="1"/>
     <col min="62" max="62" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1184,21 +1187,21 @@
     <col min="127" max="127" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="129" max="130" width="21" style="2" customWidth="1"/>
-    <col min="131" max="131" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="9" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.42578125" style="8" customWidth="1"/>
+    <col min="133" max="133" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="12.5703125" style="2" customWidth="1"/>
     <col min="137" max="137" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="21" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="37.85546875" customWidth="1"/>
-    <col min="147" max="147" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1229,6 +1232,7 @@
     <col min="178" max="178" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="184" max="184" width="18" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="16.140625" bestFit="1" customWidth="1"/>
@@ -1243,7 +1247,7 @@
     <col min="196" max="196" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="19.28515625" customWidth="1"/>
+    <col min="199" max="199" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="201" max="201" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1260,15 +1264,15 @@
     <col min="218" max="218" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="220" max="220" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="19.5703125" customWidth="1"/>
-    <col min="222" max="222" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="223" max="223" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="23" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="18" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="15" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="17" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:229" x14ac:dyDescent="0.25">
@@ -1296,7 +1300,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1311,7 +1315,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>129</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -1326,19 +1330,19 @@
       <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1353,7 +1357,7 @@
       <c r="AA1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="AC1" s="3" t="s">
@@ -1368,55 +1372,55 @@
       <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="11" t="s">
         <v>43</v>
       </c>
       <c r="AX1" s="3" t="s">
@@ -1434,7 +1438,7 @@
       <c r="BB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="10" t="s">
         <v>135</v>
       </c>
       <c r="BD1" s="4" t="s">
@@ -1443,7 +1447,7 @@
       <c r="BE1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="10" t="s">
         <v>138</v>
       </c>
       <c r="BG1" s="3" t="s">
@@ -1494,13 +1498,13 @@
       <c r="BV1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="BW1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BX1" s="12" t="s">
+      <c r="BX1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BY1" s="12" t="s">
+      <c r="BY1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="BZ1" s="3" t="s">
@@ -1542,7 +1546,7 @@
       <c r="CL1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CM1" s="12" t="s">
+      <c r="CM1" s="11" t="s">
         <v>76</v>
       </c>
       <c r="CN1" s="3" t="s">
@@ -1551,94 +1555,94 @@
       <c r="CO1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="CP1" s="12" t="s">
+      <c r="CP1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="12" t="s">
+      <c r="CQ1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="CR1" s="12" t="s">
+      <c r="CR1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="CS1" s="12" t="s">
+      <c r="CS1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="CT1" s="12" t="s">
+      <c r="CT1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="CU1" s="12" t="s">
+      <c r="CU1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="CV1" s="12" t="s">
+      <c r="CV1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="CW1" s="12" t="s">
+      <c r="CW1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="CX1" s="12" t="s">
+      <c r="CX1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="CY1" s="12" t="s">
+      <c r="CY1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="12" t="s">
+      <c r="CZ1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="DA1" s="12" t="s">
+      <c r="DA1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="DB1" s="12" t="s">
+      <c r="DB1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="DC1" s="12" t="s">
+      <c r="DC1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="DD1" s="12" t="s">
+      <c r="DD1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="DE1" s="12" t="s">
+      <c r="DE1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="DF1" s="12" t="s">
+      <c r="DF1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="DG1" s="12" t="s">
+      <c r="DG1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="12" t="s">
+      <c r="DH1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="DI1" s="12" t="s">
+      <c r="DI1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="DJ1" s="12" t="s">
+      <c r="DJ1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="DK1" s="12" t="s">
+      <c r="DK1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="DL1" s="12" t="s">
+      <c r="DL1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="DM1" s="12" t="s">
+      <c r="DM1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="DN1" s="12" t="s">
+      <c r="DN1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="DO1" s="12" t="s">
+      <c r="DO1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="DP1" s="12" t="s">
+      <c r="DP1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="DQ1" s="12" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="DR1" s="12" t="s">
+      <c r="DR1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="DS1" s="12" t="s">
+      <c r="DS1" s="11" t="s">
         <v>101</v>
       </c>
       <c r="DT1" s="3" t="s">
@@ -1656,10 +1660,10 @@
       <c r="DX1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DY1" s="12" t="s">
+      <c r="DY1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="DZ1" s="14" t="s">
+      <c r="DZ1" s="13" t="s">
         <v>107</v>
       </c>
       <c r="EA1" s="7" t="s">
@@ -1725,40 +1729,40 @@
       <c r="EU1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="EV1" s="13" t="s">
+      <c r="EV1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="EW1" s="13" t="s">
+      <c r="EW1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="EX1" s="13" t="s">
+      <c r="EX1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="EY1" s="13" t="s">
+      <c r="EY1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="EZ1" s="15" t="s">
+      <c r="EZ1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="FA1" s="15" t="s">
+      <c r="FA1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="FB1" s="15" t="s">
+      <c r="FB1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="FC1" s="15" t="s">
+      <c r="FC1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="FD1" s="13" t="s">
+      <c r="FD1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="FE1" s="13" t="s">
+      <c r="FE1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="FF1" s="13" t="s">
+      <c r="FF1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="FG1" s="13" t="s">
+      <c r="FG1" s="12" t="s">
         <v>228</v>
       </c>
       <c r="FH1" s="3" t="s">
@@ -1961,42 +1965,27 @@
       </c>
     </row>
     <row r="2" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD2"/>
       <c r="DZ2"/>
     </row>
     <row r="3" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD3"/>
       <c r="DZ3"/>
     </row>
     <row r="4" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BC4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BF4" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="3"/>
       <c r="DZ4"/>
     </row>
     <row r="5" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD5"/>
       <c r="DZ5"/>
     </row>
     <row r="6" spans="1:229" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="BD6"/>
       <c r="DZ6"/>
       <c r="FK6" s="1"/>
     </row>
     <row r="7" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD7"/>
       <c r="DZ7"/>
       <c r="FL7"/>
       <c r="FM7"/>
@@ -2012,2795 +2001,2097 @@
       <c r="HP7"/>
     </row>
     <row r="8" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD8"/>
       <c r="DZ8"/>
     </row>
     <row r="9" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD9"/>
       <c r="DZ9"/>
     </row>
     <row r="10" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD10"/>
       <c r="DZ10"/>
     </row>
     <row r="11" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD11"/>
       <c r="DZ11"/>
     </row>
     <row r="12" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD12"/>
       <c r="DZ12"/>
     </row>
     <row r="13" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD13"/>
       <c r="DZ13"/>
     </row>
     <row r="14" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD14"/>
       <c r="DZ14"/>
     </row>
     <row r="15" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD15"/>
       <c r="DZ15"/>
     </row>
     <row r="16" spans="1:229" x14ac:dyDescent="0.25">
-      <c r="BD16"/>
       <c r="DZ16"/>
     </row>
-    <row r="17" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD17"/>
+    <row r="17" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ17"/>
     </row>
-    <row r="18" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD18"/>
+    <row r="18" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ18"/>
     </row>
-    <row r="19" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD19"/>
+    <row r="19" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ19"/>
     </row>
-    <row r="20" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD20"/>
+    <row r="20" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ20"/>
     </row>
-    <row r="21" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD21"/>
+    <row r="21" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ21"/>
     </row>
-    <row r="22" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD22"/>
+    <row r="22" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ22"/>
     </row>
-    <row r="23" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD23"/>
+    <row r="23" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ23"/>
     </row>
-    <row r="24" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD24"/>
+    <row r="24" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ24"/>
     </row>
-    <row r="25" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD25"/>
+    <row r="25" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ25"/>
     </row>
-    <row r="26" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD26"/>
+    <row r="26" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ26"/>
     </row>
-    <row r="27" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD27"/>
+    <row r="27" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ27"/>
     </row>
-    <row r="28" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD28"/>
+    <row r="28" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ28"/>
     </row>
-    <row r="29" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD29"/>
+    <row r="29" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ29"/>
     </row>
-    <row r="30" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD30"/>
+    <row r="30" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ30"/>
     </row>
-    <row r="31" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD31"/>
+    <row r="31" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ31"/>
     </row>
-    <row r="32" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD32"/>
+    <row r="32" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ32"/>
     </row>
-    <row r="33" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD33"/>
+    <row r="33" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ33"/>
     </row>
-    <row r="34" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD34"/>
+    <row r="34" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ34"/>
     </row>
-    <row r="35" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD35"/>
+    <row r="35" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ35"/>
     </row>
-    <row r="36" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD36"/>
+    <row r="36" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ36"/>
     </row>
-    <row r="37" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD37"/>
+    <row r="37" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ37"/>
     </row>
-    <row r="38" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD38"/>
+    <row r="38" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ38"/>
     </row>
-    <row r="39" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD39"/>
+    <row r="39" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ39"/>
     </row>
-    <row r="40" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD40"/>
+    <row r="40" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ40"/>
     </row>
-    <row r="41" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD41"/>
+    <row r="41" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ41"/>
     </row>
-    <row r="42" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD42"/>
+    <row r="42" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ42"/>
     </row>
-    <row r="43" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD43"/>
+    <row r="43" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ43"/>
     </row>
-    <row r="44" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD44"/>
+    <row r="44" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ44"/>
     </row>
-    <row r="45" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD45"/>
+    <row r="45" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ45"/>
     </row>
-    <row r="46" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD46"/>
+    <row r="46" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ46"/>
     </row>
-    <row r="47" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD47"/>
+    <row r="47" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ47"/>
     </row>
-    <row r="48" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD48"/>
+    <row r="48" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ48"/>
     </row>
-    <row r="49" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD49"/>
+    <row r="49" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ49"/>
     </row>
-    <row r="50" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD50"/>
+    <row r="50" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ50"/>
     </row>
-    <row r="51" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD51"/>
+    <row r="51" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ51"/>
     </row>
-    <row r="52" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD52"/>
+    <row r="52" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ52"/>
     </row>
-    <row r="53" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD53"/>
+    <row r="53" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ53"/>
     </row>
-    <row r="54" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD54"/>
+    <row r="54" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ54"/>
     </row>
-    <row r="55" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD55"/>
+    <row r="55" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ55"/>
     </row>
-    <row r="56" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD56"/>
+    <row r="56" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ56"/>
     </row>
-    <row r="57" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD57"/>
+    <row r="57" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ57"/>
     </row>
-    <row r="58" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD58"/>
+    <row r="58" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ58"/>
     </row>
-    <row r="59" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD59"/>
+    <row r="59" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ59"/>
     </row>
-    <row r="60" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD60"/>
+    <row r="60" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ60"/>
     </row>
-    <row r="61" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD61"/>
+    <row r="61" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ61"/>
     </row>
-    <row r="62" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD62"/>
+    <row r="62" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ62"/>
     </row>
-    <row r="63" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD63"/>
+    <row r="63" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ63"/>
     </row>
-    <row r="64" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD64"/>
+    <row r="64" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ64"/>
     </row>
-    <row r="65" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD65"/>
+    <row r="65" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ65"/>
     </row>
-    <row r="66" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD66"/>
+    <row r="66" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ66"/>
     </row>
-    <row r="67" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD67"/>
+    <row r="67" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ67"/>
     </row>
-    <row r="68" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD68"/>
+    <row r="68" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ68"/>
     </row>
-    <row r="69" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD69"/>
+    <row r="69" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ69"/>
     </row>
-    <row r="70" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD70"/>
+    <row r="70" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ70"/>
     </row>
-    <row r="71" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD71"/>
+    <row r="71" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ71"/>
     </row>
-    <row r="72" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD72"/>
+    <row r="72" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ72"/>
     </row>
-    <row r="73" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD73"/>
+    <row r="73" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ73"/>
     </row>
-    <row r="74" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD74"/>
+    <row r="74" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ74"/>
     </row>
-    <row r="75" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD75"/>
+    <row r="75" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ75"/>
     </row>
-    <row r="76" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD76"/>
+    <row r="76" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ76"/>
     </row>
-    <row r="77" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD77"/>
+    <row r="77" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ77"/>
     </row>
-    <row r="78" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD78"/>
+    <row r="78" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ78"/>
     </row>
-    <row r="79" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD79"/>
+    <row r="79" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ79"/>
     </row>
-    <row r="80" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD80"/>
+    <row r="80" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ80"/>
     </row>
-    <row r="81" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD81"/>
+    <row r="81" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ81"/>
     </row>
-    <row r="82" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD82"/>
+    <row r="82" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ82"/>
     </row>
-    <row r="83" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD83"/>
+    <row r="83" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ83"/>
     </row>
-    <row r="84" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD84"/>
+    <row r="84" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ84"/>
     </row>
-    <row r="85" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD85"/>
+    <row r="85" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ85"/>
     </row>
-    <row r="86" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD86"/>
+    <row r="86" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ86"/>
     </row>
-    <row r="87" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD87"/>
+    <row r="87" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ87"/>
     </row>
-    <row r="88" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD88"/>
+    <row r="88" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ88"/>
     </row>
-    <row r="89" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD89"/>
+    <row r="89" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ89"/>
     </row>
-    <row r="90" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD90"/>
+    <row r="90" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ90"/>
     </row>
-    <row r="91" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD91"/>
+    <row r="91" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ91"/>
     </row>
-    <row r="92" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD92"/>
+    <row r="92" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ92"/>
     </row>
-    <row r="93" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD93"/>
+    <row r="93" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ93"/>
     </row>
-    <row r="94" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD94"/>
+    <row r="94" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ94"/>
     </row>
-    <row r="95" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD95"/>
+    <row r="95" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ95"/>
     </row>
-    <row r="96" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD96"/>
+    <row r="96" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ96"/>
     </row>
-    <row r="97" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD97"/>
+    <row r="97" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ97"/>
     </row>
-    <row r="98" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD98"/>
+    <row r="98" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ98"/>
     </row>
-    <row r="99" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD99"/>
+    <row r="99" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ99"/>
     </row>
-    <row r="100" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD100"/>
+    <row r="100" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ100"/>
     </row>
-    <row r="101" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD101"/>
+    <row r="101" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ101"/>
     </row>
-    <row r="102" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD102"/>
+    <row r="102" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ102"/>
     </row>
-    <row r="103" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD103"/>
+    <row r="103" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ103"/>
     </row>
-    <row r="104" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD104"/>
+    <row r="104" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ104"/>
     </row>
-    <row r="105" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD105"/>
+    <row r="105" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ105"/>
     </row>
-    <row r="106" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD106"/>
+    <row r="106" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ106"/>
     </row>
-    <row r="107" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD107"/>
+    <row r="107" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ107"/>
     </row>
-    <row r="108" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD108"/>
+    <row r="108" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ108"/>
     </row>
-    <row r="109" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD109"/>
+    <row r="109" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ109"/>
     </row>
-    <row r="110" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD110"/>
+    <row r="110" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ110"/>
     </row>
-    <row r="111" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD111"/>
+    <row r="111" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ111"/>
     </row>
-    <row r="112" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD112"/>
+    <row r="112" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ112"/>
     </row>
-    <row r="113" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD113"/>
+    <row r="113" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ113"/>
     </row>
-    <row r="114" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD114"/>
+    <row r="114" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ114"/>
     </row>
-    <row r="115" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD115"/>
+    <row r="115" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ115"/>
     </row>
-    <row r="116" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD116"/>
+    <row r="116" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ116"/>
     </row>
-    <row r="117" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD117"/>
+    <row r="117" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ117"/>
     </row>
-    <row r="118" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD118"/>
+    <row r="118" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ118"/>
     </row>
-    <row r="119" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD119"/>
+    <row r="119" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ119"/>
     </row>
-    <row r="120" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD120"/>
+    <row r="120" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ120"/>
     </row>
-    <row r="121" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD121"/>
+    <row r="121" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ121"/>
     </row>
-    <row r="122" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD122"/>
+    <row r="122" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ122"/>
     </row>
-    <row r="123" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD123"/>
+    <row r="123" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ123"/>
     </row>
-    <row r="124" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD124"/>
+    <row r="124" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ124"/>
     </row>
-    <row r="125" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD125"/>
+    <row r="125" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ125"/>
     </row>
-    <row r="126" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD126"/>
+    <row r="126" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ126"/>
     </row>
-    <row r="127" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD127"/>
+    <row r="127" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ127"/>
     </row>
-    <row r="128" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD128"/>
+    <row r="128" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ128"/>
     </row>
-    <row r="129" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD129"/>
+    <row r="129" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ129"/>
     </row>
-    <row r="130" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD130"/>
+    <row r="130" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ130"/>
     </row>
-    <row r="131" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD131"/>
+    <row r="131" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ131"/>
     </row>
-    <row r="132" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD132"/>
+    <row r="132" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ132"/>
     </row>
-    <row r="133" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD133"/>
+    <row r="133" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ133"/>
     </row>
-    <row r="134" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD134"/>
+    <row r="134" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ134"/>
     </row>
-    <row r="135" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD135"/>
+    <row r="135" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ135"/>
     </row>
-    <row r="136" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD136"/>
+    <row r="136" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ136"/>
     </row>
-    <row r="137" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD137"/>
+    <row r="137" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ137"/>
     </row>
-    <row r="138" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD138"/>
+    <row r="138" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ138"/>
     </row>
-    <row r="139" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD139"/>
+    <row r="139" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ139"/>
     </row>
-    <row r="140" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD140"/>
+    <row r="140" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ140"/>
     </row>
-    <row r="141" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD141"/>
+    <row r="141" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ141"/>
     </row>
-    <row r="142" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD142"/>
+    <row r="142" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ142"/>
     </row>
-    <row r="143" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD143"/>
+    <row r="143" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ143"/>
     </row>
-    <row r="144" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD144"/>
+    <row r="144" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ144"/>
     </row>
-    <row r="145" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD145"/>
+    <row r="145" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ145"/>
     </row>
-    <row r="146" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD146"/>
+    <row r="146" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ146"/>
     </row>
-    <row r="147" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD147"/>
+    <row r="147" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ147"/>
     </row>
-    <row r="148" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD148"/>
+    <row r="148" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ148"/>
     </row>
-    <row r="149" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD149"/>
+    <row r="149" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ149"/>
     </row>
-    <row r="150" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD150"/>
+    <row r="150" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ150"/>
     </row>
-    <row r="151" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD151"/>
+    <row r="151" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ151"/>
     </row>
-    <row r="152" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD152"/>
+    <row r="152" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ152"/>
     </row>
-    <row r="153" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD153"/>
+    <row r="153" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ153"/>
     </row>
-    <row r="154" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD154"/>
+    <row r="154" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ154"/>
     </row>
-    <row r="155" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD155"/>
+    <row r="155" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ155"/>
     </row>
-    <row r="156" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD156"/>
+    <row r="156" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ156"/>
     </row>
-    <row r="157" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD157"/>
+    <row r="157" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ157"/>
     </row>
-    <row r="158" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD158"/>
+    <row r="158" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ158"/>
     </row>
-    <row r="159" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD159"/>
+    <row r="159" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ159"/>
     </row>
-    <row r="160" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD160"/>
+    <row r="160" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ160"/>
     </row>
-    <row r="161" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD161"/>
+    <row r="161" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ161"/>
     </row>
-    <row r="162" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD162"/>
+    <row r="162" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ162"/>
     </row>
-    <row r="163" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD163"/>
+    <row r="163" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ163"/>
     </row>
-    <row r="164" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD164"/>
+    <row r="164" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ164"/>
     </row>
-    <row r="165" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD165"/>
+    <row r="165" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ165"/>
     </row>
-    <row r="166" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD166"/>
+    <row r="166" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ166"/>
     </row>
-    <row r="167" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD167"/>
+    <row r="167" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ167"/>
     </row>
-    <row r="168" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD168"/>
+    <row r="168" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ168"/>
     </row>
-    <row r="169" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD169"/>
+    <row r="169" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ169"/>
     </row>
-    <row r="170" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD170"/>
+    <row r="170" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ170"/>
     </row>
-    <row r="171" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD171"/>
+    <row r="171" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ171"/>
     </row>
-    <row r="172" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD172"/>
+    <row r="172" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ172"/>
     </row>
-    <row r="173" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD173"/>
+    <row r="173" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ173"/>
     </row>
-    <row r="174" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD174"/>
+    <row r="174" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ174"/>
     </row>
-    <row r="175" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD175"/>
+    <row r="175" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ175"/>
     </row>
-    <row r="176" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD176"/>
+    <row r="176" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ176"/>
     </row>
-    <row r="177" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD177"/>
+    <row r="177" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ177"/>
     </row>
-    <row r="178" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD178"/>
+    <row r="178" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ178"/>
     </row>
-    <row r="179" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD179"/>
+    <row r="179" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ179"/>
     </row>
-    <row r="180" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD180"/>
+    <row r="180" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ180"/>
     </row>
-    <row r="181" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD181"/>
+    <row r="181" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ181"/>
     </row>
-    <row r="182" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD182"/>
+    <row r="182" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ182"/>
     </row>
-    <row r="183" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD183"/>
+    <row r="183" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ183"/>
     </row>
-    <row r="184" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD184"/>
+    <row r="184" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ184"/>
     </row>
-    <row r="185" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD185"/>
+    <row r="185" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ185"/>
     </row>
-    <row r="186" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD186"/>
+    <row r="186" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ186"/>
     </row>
-    <row r="187" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD187"/>
+    <row r="187" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ187"/>
     </row>
-    <row r="188" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD188"/>
+    <row r="188" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ188"/>
     </row>
-    <row r="189" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD189"/>
+    <row r="189" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ189"/>
     </row>
-    <row r="190" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD190"/>
+    <row r="190" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ190"/>
     </row>
-    <row r="191" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD191"/>
+    <row r="191" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ191"/>
     </row>
-    <row r="192" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD192"/>
+    <row r="192" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ192"/>
     </row>
-    <row r="193" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD193"/>
+    <row r="193" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ193"/>
     </row>
-    <row r="194" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD194"/>
+    <row r="194" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ194"/>
     </row>
-    <row r="195" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD195"/>
+    <row r="195" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ195"/>
     </row>
-    <row r="196" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD196"/>
+    <row r="196" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ196"/>
     </row>
-    <row r="197" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD197"/>
+    <row r="197" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ197"/>
     </row>
-    <row r="198" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD198"/>
+    <row r="198" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ198"/>
     </row>
-    <row r="199" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD199"/>
+    <row r="199" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ199"/>
     </row>
-    <row r="200" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD200"/>
+    <row r="200" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ200"/>
     </row>
-    <row r="201" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD201"/>
+    <row r="201" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ201"/>
     </row>
-    <row r="202" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD202"/>
+    <row r="202" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ202"/>
     </row>
-    <row r="203" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD203"/>
+    <row r="203" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ203"/>
     </row>
-    <row r="204" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD204"/>
+    <row r="204" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ204"/>
     </row>
-    <row r="205" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD205"/>
+    <row r="205" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ205"/>
     </row>
-    <row r="206" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD206"/>
+    <row r="206" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ206"/>
     </row>
-    <row r="207" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD207"/>
+    <row r="207" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ207"/>
     </row>
-    <row r="208" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD208"/>
+    <row r="208" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ208"/>
     </row>
-    <row r="209" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD209"/>
+    <row r="209" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ209"/>
     </row>
-    <row r="210" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD210"/>
+    <row r="210" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ210"/>
     </row>
-    <row r="211" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD211"/>
+    <row r="211" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ211"/>
     </row>
-    <row r="212" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD212"/>
+    <row r="212" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ212"/>
     </row>
-    <row r="213" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD213"/>
+    <row r="213" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ213"/>
     </row>
-    <row r="214" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD214"/>
+    <row r="214" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ214"/>
     </row>
-    <row r="215" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD215"/>
+    <row r="215" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ215"/>
     </row>
-    <row r="216" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD216"/>
+    <row r="216" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ216"/>
     </row>
-    <row r="217" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD217"/>
+    <row r="217" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ217"/>
     </row>
-    <row r="218" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD218"/>
+    <row r="218" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ218"/>
     </row>
-    <row r="219" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD219"/>
+    <row r="219" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ219"/>
     </row>
-    <row r="220" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD220"/>
+    <row r="220" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ220"/>
     </row>
-    <row r="221" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD221"/>
+    <row r="221" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ221"/>
     </row>
-    <row r="222" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD222"/>
+    <row r="222" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ222"/>
     </row>
-    <row r="223" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD223"/>
+    <row r="223" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ223"/>
     </row>
-    <row r="224" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD224"/>
+    <row r="224" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ224"/>
     </row>
-    <row r="225" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD225"/>
+    <row r="225" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ225"/>
     </row>
-    <row r="226" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD226"/>
+    <row r="226" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ226"/>
     </row>
-    <row r="227" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD227"/>
+    <row r="227" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ227"/>
     </row>
-    <row r="228" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD228"/>
+    <row r="228" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ228"/>
     </row>
-    <row r="229" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD229"/>
+    <row r="229" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ229"/>
     </row>
-    <row r="230" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD230"/>
+    <row r="230" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ230"/>
     </row>
-    <row r="231" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD231"/>
+    <row r="231" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ231"/>
     </row>
-    <row r="232" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD232"/>
+    <row r="232" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ232"/>
     </row>
-    <row r="233" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD233"/>
+    <row r="233" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ233"/>
     </row>
-    <row r="234" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD234"/>
+    <row r="234" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ234"/>
     </row>
-    <row r="235" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD235"/>
+    <row r="235" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ235"/>
     </row>
-    <row r="236" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD236"/>
+    <row r="236" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ236"/>
     </row>
-    <row r="237" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD237"/>
+    <row r="237" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ237"/>
     </row>
-    <row r="238" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD238"/>
+    <row r="238" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ238"/>
     </row>
-    <row r="239" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD239"/>
+    <row r="239" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ239"/>
     </row>
-    <row r="240" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD240"/>
+    <row r="240" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ240"/>
     </row>
-    <row r="241" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD241"/>
+    <row r="241" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ241"/>
     </row>
-    <row r="242" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD242"/>
+    <row r="242" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ242"/>
     </row>
-    <row r="243" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD243"/>
+    <row r="243" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ243"/>
     </row>
-    <row r="244" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD244"/>
+    <row r="244" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ244"/>
     </row>
-    <row r="245" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD245"/>
+    <row r="245" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ245"/>
     </row>
-    <row r="246" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD246"/>
+    <row r="246" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ246"/>
     </row>
-    <row r="247" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD247"/>
+    <row r="247" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ247"/>
     </row>
-    <row r="248" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD248"/>
+    <row r="248" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ248"/>
     </row>
-    <row r="249" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD249"/>
+    <row r="249" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ249"/>
     </row>
-    <row r="250" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD250"/>
+    <row r="250" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ250"/>
     </row>
-    <row r="251" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD251"/>
+    <row r="251" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ251"/>
     </row>
-    <row r="252" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD252"/>
+    <row r="252" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ252"/>
     </row>
-    <row r="253" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD253"/>
+    <row r="253" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ253"/>
     </row>
-    <row r="254" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD254"/>
+    <row r="254" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ254"/>
     </row>
-    <row r="255" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD255"/>
+    <row r="255" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ255"/>
     </row>
-    <row r="256" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD256"/>
+    <row r="256" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ256"/>
     </row>
-    <row r="257" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD257"/>
+    <row r="257" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ257"/>
     </row>
-    <row r="258" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD258"/>
+    <row r="258" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ258"/>
     </row>
-    <row r="259" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD259"/>
+    <row r="259" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ259"/>
     </row>
-    <row r="260" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD260"/>
+    <row r="260" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ260"/>
     </row>
-    <row r="261" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD261"/>
+    <row r="261" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ261"/>
     </row>
-    <row r="262" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD262"/>
+    <row r="262" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ262"/>
     </row>
-    <row r="263" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD263"/>
+    <row r="263" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ263"/>
     </row>
-    <row r="264" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD264"/>
+    <row r="264" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ264"/>
     </row>
-    <row r="265" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD265"/>
+    <row r="265" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ265"/>
     </row>
-    <row r="266" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD266"/>
+    <row r="266" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ266"/>
     </row>
-    <row r="267" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD267"/>
+    <row r="267" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ267"/>
     </row>
-    <row r="268" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD268"/>
+    <row r="268" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ268"/>
     </row>
-    <row r="269" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD269"/>
+    <row r="269" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ269"/>
     </row>
-    <row r="270" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD270"/>
+    <row r="270" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ270"/>
     </row>
-    <row r="271" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD271"/>
+    <row r="271" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ271"/>
     </row>
-    <row r="272" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD272"/>
+    <row r="272" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ272"/>
     </row>
-    <row r="273" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD273"/>
+    <row r="273" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ273"/>
     </row>
-    <row r="274" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD274"/>
+    <row r="274" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ274"/>
     </row>
-    <row r="275" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD275"/>
+    <row r="275" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ275"/>
     </row>
-    <row r="276" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD276"/>
+    <row r="276" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ276"/>
     </row>
-    <row r="277" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD277"/>
+    <row r="277" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ277"/>
     </row>
-    <row r="278" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD278"/>
+    <row r="278" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ278"/>
     </row>
-    <row r="279" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD279"/>
+    <row r="279" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ279"/>
     </row>
-    <row r="280" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD280"/>
+    <row r="280" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ280"/>
     </row>
-    <row r="281" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD281"/>
+    <row r="281" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ281"/>
     </row>
-    <row r="282" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD282"/>
+    <row r="282" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ282"/>
     </row>
-    <row r="283" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD283"/>
+    <row r="283" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ283"/>
     </row>
-    <row r="284" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD284"/>
+    <row r="284" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ284"/>
     </row>
-    <row r="285" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD285"/>
+    <row r="285" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ285"/>
     </row>
-    <row r="286" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD286"/>
+    <row r="286" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ286"/>
     </row>
-    <row r="287" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD287"/>
+    <row r="287" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ287"/>
     </row>
-    <row r="288" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD288"/>
+    <row r="288" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ288"/>
     </row>
-    <row r="289" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD289"/>
+    <row r="289" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ289"/>
     </row>
-    <row r="290" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD290"/>
+    <row r="290" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ290"/>
     </row>
-    <row r="291" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD291"/>
+    <row r="291" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ291"/>
     </row>
-    <row r="292" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD292"/>
+    <row r="292" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ292"/>
     </row>
-    <row r="293" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD293"/>
+    <row r="293" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ293"/>
     </row>
-    <row r="294" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD294"/>
+    <row r="294" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ294"/>
     </row>
-    <row r="295" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD295"/>
+    <row r="295" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ295"/>
     </row>
-    <row r="296" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD296"/>
+    <row r="296" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ296"/>
     </row>
-    <row r="297" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD297"/>
+    <row r="297" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ297"/>
     </row>
-    <row r="298" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD298"/>
+    <row r="298" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ298"/>
     </row>
-    <row r="299" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD299"/>
+    <row r="299" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ299"/>
     </row>
-    <row r="300" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD300"/>
+    <row r="300" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ300"/>
     </row>
-    <row r="301" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD301"/>
+    <row r="301" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ301"/>
     </row>
-    <row r="302" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD302"/>
+    <row r="302" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ302"/>
     </row>
-    <row r="303" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD303"/>
+    <row r="303" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ303"/>
     </row>
-    <row r="304" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD304"/>
+    <row r="304" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ304"/>
     </row>
-    <row r="305" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD305"/>
+    <row r="305" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ305"/>
     </row>
-    <row r="306" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD306"/>
+    <row r="306" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ306"/>
     </row>
-    <row r="307" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD307"/>
+    <row r="307" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ307"/>
     </row>
-    <row r="308" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD308"/>
+    <row r="308" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ308"/>
     </row>
-    <row r="309" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD309"/>
+    <row r="309" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ309"/>
     </row>
-    <row r="310" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD310"/>
+    <row r="310" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ310"/>
     </row>
-    <row r="311" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD311"/>
+    <row r="311" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ311"/>
     </row>
-    <row r="312" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD312"/>
+    <row r="312" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ312"/>
     </row>
-    <row r="313" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD313"/>
+    <row r="313" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ313"/>
     </row>
-    <row r="314" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD314"/>
+    <row r="314" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ314"/>
     </row>
-    <row r="315" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD315"/>
+    <row r="315" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ315"/>
     </row>
-    <row r="316" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD316"/>
+    <row r="316" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ316"/>
     </row>
-    <row r="317" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD317"/>
+    <row r="317" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ317"/>
     </row>
-    <row r="318" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD318"/>
+    <row r="318" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ318"/>
     </row>
-    <row r="319" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD319"/>
+    <row r="319" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ319"/>
     </row>
-    <row r="320" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD320"/>
+    <row r="320" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ320"/>
     </row>
-    <row r="321" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD321"/>
+    <row r="321" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ321"/>
     </row>
-    <row r="322" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD322"/>
+    <row r="322" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ322"/>
     </row>
-    <row r="323" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD323"/>
+    <row r="323" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ323"/>
     </row>
-    <row r="324" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD324"/>
+    <row r="324" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ324"/>
     </row>
-    <row r="325" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD325"/>
+    <row r="325" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ325"/>
     </row>
-    <row r="326" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD326"/>
+    <row r="326" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ326"/>
     </row>
-    <row r="327" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD327"/>
+    <row r="327" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ327"/>
     </row>
-    <row r="328" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD328"/>
+    <row r="328" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ328"/>
     </row>
-    <row r="329" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD329"/>
+    <row r="329" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ329"/>
     </row>
-    <row r="330" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD330"/>
+    <row r="330" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ330"/>
     </row>
-    <row r="331" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD331"/>
+    <row r="331" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ331"/>
     </row>
-    <row r="332" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD332"/>
+    <row r="332" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ332"/>
     </row>
-    <row r="333" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD333"/>
+    <row r="333" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ333"/>
     </row>
-    <row r="334" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD334"/>
+    <row r="334" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ334"/>
     </row>
-    <row r="335" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD335"/>
+    <row r="335" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ335"/>
     </row>
-    <row r="336" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD336"/>
+    <row r="336" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ336"/>
     </row>
-    <row r="337" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD337"/>
+    <row r="337" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ337"/>
     </row>
-    <row r="338" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD338"/>
+    <row r="338" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ338"/>
     </row>
-    <row r="339" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD339"/>
+    <row r="339" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ339"/>
     </row>
-    <row r="340" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD340"/>
+    <row r="340" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ340"/>
     </row>
-    <row r="341" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD341"/>
+    <row r="341" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ341"/>
     </row>
-    <row r="342" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD342"/>
+    <row r="342" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ342"/>
     </row>
-    <row r="343" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD343"/>
+    <row r="343" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ343"/>
     </row>
-    <row r="344" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD344"/>
+    <row r="344" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ344"/>
     </row>
-    <row r="345" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD345"/>
+    <row r="345" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ345"/>
     </row>
-    <row r="346" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD346"/>
+    <row r="346" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ346"/>
     </row>
-    <row r="347" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD347"/>
+    <row r="347" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ347"/>
     </row>
-    <row r="348" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD348"/>
+    <row r="348" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ348"/>
     </row>
-    <row r="349" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD349"/>
+    <row r="349" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ349"/>
     </row>
-    <row r="350" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD350"/>
+    <row r="350" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ350"/>
     </row>
-    <row r="351" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD351"/>
+    <row r="351" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ351"/>
     </row>
-    <row r="352" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD352"/>
+    <row r="352" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ352"/>
     </row>
-    <row r="353" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD353"/>
+    <row r="353" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ353"/>
     </row>
-    <row r="354" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD354"/>
+    <row r="354" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ354"/>
     </row>
-    <row r="355" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD355"/>
+    <row r="355" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ355"/>
     </row>
-    <row r="356" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD356"/>
+    <row r="356" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ356"/>
     </row>
-    <row r="357" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD357"/>
+    <row r="357" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ357"/>
     </row>
-    <row r="358" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD358"/>
+    <row r="358" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ358"/>
     </row>
-    <row r="359" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD359"/>
+    <row r="359" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ359"/>
     </row>
-    <row r="360" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD360"/>
+    <row r="360" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ360"/>
     </row>
-    <row r="361" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD361"/>
+    <row r="361" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ361"/>
     </row>
-    <row r="362" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD362"/>
+    <row r="362" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ362"/>
     </row>
-    <row r="363" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD363"/>
+    <row r="363" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ363"/>
     </row>
-    <row r="364" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD364"/>
+    <row r="364" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ364"/>
     </row>
-    <row r="365" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD365"/>
+    <row r="365" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ365"/>
     </row>
-    <row r="366" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD366"/>
+    <row r="366" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ366"/>
     </row>
-    <row r="367" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD367"/>
+    <row r="367" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ367"/>
     </row>
-    <row r="368" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD368"/>
+    <row r="368" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ368"/>
     </row>
-    <row r="369" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD369"/>
+    <row r="369" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ369"/>
     </row>
-    <row r="370" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD370"/>
+    <row r="370" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ370"/>
     </row>
-    <row r="371" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD371"/>
+    <row r="371" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ371"/>
     </row>
-    <row r="372" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD372"/>
+    <row r="372" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ372"/>
     </row>
-    <row r="373" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD373"/>
+    <row r="373" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ373"/>
     </row>
-    <row r="374" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD374"/>
+    <row r="374" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ374"/>
     </row>
-    <row r="375" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD375"/>
+    <row r="375" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ375"/>
     </row>
-    <row r="376" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD376"/>
+    <row r="376" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ376"/>
     </row>
-    <row r="377" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD377"/>
+    <row r="377" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ377"/>
     </row>
-    <row r="378" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD378"/>
+    <row r="378" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ378"/>
     </row>
-    <row r="379" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD379"/>
+    <row r="379" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ379"/>
     </row>
-    <row r="380" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD380"/>
+    <row r="380" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ380"/>
     </row>
-    <row r="381" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD381"/>
+    <row r="381" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ381"/>
     </row>
-    <row r="382" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD382"/>
+    <row r="382" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ382"/>
     </row>
-    <row r="383" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD383"/>
+    <row r="383" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ383"/>
     </row>
-    <row r="384" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD384"/>
+    <row r="384" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ384"/>
     </row>
-    <row r="385" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD385"/>
+    <row r="385" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ385"/>
     </row>
-    <row r="386" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD386"/>
+    <row r="386" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ386"/>
     </row>
-    <row r="387" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD387"/>
+    <row r="387" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ387"/>
     </row>
-    <row r="388" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD388"/>
+    <row r="388" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ388"/>
     </row>
-    <row r="389" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD389"/>
+    <row r="389" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ389"/>
     </row>
-    <row r="390" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD390"/>
+    <row r="390" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ390"/>
     </row>
-    <row r="391" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD391"/>
+    <row r="391" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ391"/>
     </row>
-    <row r="392" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD392"/>
+    <row r="392" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ392"/>
     </row>
-    <row r="393" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD393"/>
+    <row r="393" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ393"/>
     </row>
-    <row r="394" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD394"/>
+    <row r="394" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ394"/>
     </row>
-    <row r="395" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD395"/>
+    <row r="395" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ395"/>
     </row>
-    <row r="396" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD396"/>
+    <row r="396" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ396"/>
     </row>
-    <row r="397" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD397"/>
+    <row r="397" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ397"/>
     </row>
-    <row r="398" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD398"/>
+    <row r="398" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ398"/>
     </row>
-    <row r="399" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD399"/>
+    <row r="399" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ399"/>
     </row>
-    <row r="400" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD400"/>
+    <row r="400" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ400"/>
     </row>
-    <row r="401" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD401"/>
+    <row r="401" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ401"/>
     </row>
-    <row r="402" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD402"/>
+    <row r="402" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ402"/>
     </row>
-    <row r="403" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD403"/>
+    <row r="403" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ403"/>
     </row>
-    <row r="404" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD404"/>
+    <row r="404" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ404"/>
     </row>
-    <row r="405" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD405"/>
+    <row r="405" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ405"/>
     </row>
-    <row r="406" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD406"/>
+    <row r="406" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ406"/>
     </row>
-    <row r="407" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD407"/>
+    <row r="407" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ407"/>
     </row>
-    <row r="408" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD408"/>
+    <row r="408" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ408"/>
     </row>
-    <row r="409" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD409"/>
+    <row r="409" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ409"/>
     </row>
-    <row r="410" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD410"/>
+    <row r="410" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ410"/>
     </row>
-    <row r="411" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD411"/>
+    <row r="411" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ411"/>
     </row>
-    <row r="412" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD412"/>
+    <row r="412" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ412"/>
     </row>
-    <row r="413" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD413"/>
+    <row r="413" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ413"/>
     </row>
-    <row r="414" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD414"/>
+    <row r="414" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ414"/>
     </row>
-    <row r="415" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD415"/>
+    <row r="415" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ415"/>
     </row>
-    <row r="416" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD416"/>
+    <row r="416" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ416"/>
     </row>
-    <row r="417" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD417"/>
+    <row r="417" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ417"/>
     </row>
-    <row r="418" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD418"/>
+    <row r="418" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ418"/>
     </row>
-    <row r="419" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD419"/>
+    <row r="419" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ419"/>
     </row>
-    <row r="420" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD420"/>
+    <row r="420" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ420"/>
     </row>
-    <row r="421" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD421"/>
+    <row r="421" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ421"/>
     </row>
-    <row r="422" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD422"/>
+    <row r="422" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ422"/>
     </row>
-    <row r="423" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD423"/>
+    <row r="423" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ423"/>
     </row>
-    <row r="424" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD424"/>
+    <row r="424" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ424"/>
     </row>
-    <row r="425" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD425"/>
+    <row r="425" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ425"/>
     </row>
-    <row r="426" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD426"/>
+    <row r="426" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ426"/>
     </row>
-    <row r="427" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD427"/>
+    <row r="427" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ427"/>
     </row>
-    <row r="428" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD428"/>
+    <row r="428" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ428"/>
     </row>
-    <row r="429" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD429"/>
+    <row r="429" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ429"/>
     </row>
-    <row r="430" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD430"/>
+    <row r="430" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ430"/>
     </row>
-    <row r="431" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD431"/>
+    <row r="431" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ431"/>
     </row>
-    <row r="432" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD432"/>
+    <row r="432" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ432"/>
     </row>
-    <row r="433" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD433"/>
+    <row r="433" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ433"/>
     </row>
-    <row r="434" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD434"/>
+    <row r="434" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ434"/>
     </row>
-    <row r="435" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD435"/>
+    <row r="435" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ435"/>
     </row>
-    <row r="436" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD436"/>
+    <row r="436" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ436"/>
     </row>
-    <row r="437" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD437"/>
+    <row r="437" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ437"/>
     </row>
-    <row r="438" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD438"/>
+    <row r="438" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ438"/>
     </row>
-    <row r="439" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD439"/>
+    <row r="439" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ439"/>
     </row>
-    <row r="440" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD440"/>
+    <row r="440" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ440"/>
     </row>
-    <row r="441" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD441"/>
+    <row r="441" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ441"/>
     </row>
-    <row r="442" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD442"/>
+    <row r="442" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ442"/>
     </row>
-    <row r="443" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD443"/>
+    <row r="443" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ443"/>
     </row>
-    <row r="444" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD444"/>
+    <row r="444" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ444"/>
     </row>
-    <row r="445" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD445"/>
+    <row r="445" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ445"/>
     </row>
-    <row r="446" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD446"/>
+    <row r="446" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ446"/>
     </row>
-    <row r="447" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD447"/>
+    <row r="447" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ447"/>
     </row>
-    <row r="448" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD448"/>
+    <row r="448" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ448"/>
     </row>
-    <row r="449" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD449"/>
+    <row r="449" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ449"/>
     </row>
-    <row r="450" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD450"/>
+    <row r="450" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ450"/>
     </row>
-    <row r="451" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD451"/>
+    <row r="451" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ451"/>
     </row>
-    <row r="452" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD452"/>
+    <row r="452" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ452"/>
     </row>
-    <row r="453" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD453"/>
+    <row r="453" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ453"/>
     </row>
-    <row r="454" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD454"/>
+    <row r="454" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ454"/>
     </row>
-    <row r="455" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD455"/>
+    <row r="455" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ455"/>
     </row>
-    <row r="456" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD456"/>
+    <row r="456" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ456"/>
     </row>
-    <row r="457" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD457"/>
+    <row r="457" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ457"/>
     </row>
-    <row r="458" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD458"/>
+    <row r="458" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ458"/>
     </row>
-    <row r="459" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD459"/>
+    <row r="459" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ459"/>
     </row>
-    <row r="460" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD460"/>
+    <row r="460" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ460"/>
     </row>
-    <row r="461" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD461"/>
+    <row r="461" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ461"/>
     </row>
-    <row r="462" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD462"/>
+    <row r="462" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ462"/>
     </row>
-    <row r="463" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD463"/>
+    <row r="463" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ463"/>
     </row>
-    <row r="464" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD464"/>
+    <row r="464" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ464"/>
     </row>
-    <row r="465" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD465"/>
+    <row r="465" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ465"/>
     </row>
-    <row r="466" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD466"/>
+    <row r="466" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ466"/>
     </row>
-    <row r="467" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD467"/>
+    <row r="467" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ467"/>
     </row>
-    <row r="468" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD468"/>
+    <row r="468" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ468"/>
     </row>
-    <row r="469" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD469"/>
+    <row r="469" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ469"/>
     </row>
-    <row r="470" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD470"/>
+    <row r="470" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ470"/>
     </row>
-    <row r="471" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD471"/>
+    <row r="471" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ471"/>
     </row>
-    <row r="472" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD472"/>
+    <row r="472" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ472"/>
     </row>
-    <row r="473" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD473"/>
+    <row r="473" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ473"/>
     </row>
-    <row r="474" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD474"/>
+    <row r="474" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ474"/>
     </row>
-    <row r="475" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD475"/>
+    <row r="475" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ475"/>
     </row>
-    <row r="476" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD476"/>
+    <row r="476" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ476"/>
     </row>
-    <row r="477" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD477"/>
+    <row r="477" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ477"/>
     </row>
-    <row r="478" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD478"/>
+    <row r="478" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ478"/>
     </row>
-    <row r="479" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD479"/>
+    <row r="479" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ479"/>
     </row>
-    <row r="480" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD480"/>
+    <row r="480" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ480"/>
     </row>
-    <row r="481" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD481"/>
+    <row r="481" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ481"/>
     </row>
-    <row r="482" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD482"/>
+    <row r="482" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ482"/>
     </row>
-    <row r="483" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD483"/>
+    <row r="483" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ483"/>
     </row>
-    <row r="484" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD484"/>
+    <row r="484" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ484"/>
     </row>
-    <row r="485" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD485"/>
+    <row r="485" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ485"/>
     </row>
-    <row r="486" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD486"/>
+    <row r="486" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ486"/>
     </row>
-    <row r="487" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD487"/>
+    <row r="487" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ487"/>
     </row>
-    <row r="488" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD488"/>
+    <row r="488" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ488"/>
     </row>
-    <row r="489" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD489"/>
+    <row r="489" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ489"/>
     </row>
-    <row r="490" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD490"/>
+    <row r="490" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ490"/>
     </row>
-    <row r="491" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD491"/>
+    <row r="491" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ491"/>
     </row>
-    <row r="492" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD492"/>
+    <row r="492" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ492"/>
     </row>
-    <row r="493" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD493"/>
+    <row r="493" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ493"/>
     </row>
-    <row r="494" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD494"/>
+    <row r="494" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ494"/>
     </row>
-    <row r="495" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD495"/>
+    <row r="495" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ495"/>
     </row>
-    <row r="496" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD496"/>
+    <row r="496" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ496"/>
     </row>
-    <row r="497" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD497"/>
+    <row r="497" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ497"/>
     </row>
-    <row r="498" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD498"/>
+    <row r="498" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ498"/>
     </row>
-    <row r="499" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD499"/>
+    <row r="499" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ499"/>
     </row>
-    <row r="500" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD500"/>
+    <row r="500" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ500"/>
     </row>
-    <row r="501" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD501"/>
+    <row r="501" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ501"/>
     </row>
-    <row r="502" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD502"/>
+    <row r="502" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ502"/>
     </row>
-    <row r="503" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD503"/>
+    <row r="503" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ503"/>
     </row>
-    <row r="504" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD504"/>
+    <row r="504" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ504"/>
     </row>
-    <row r="505" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD505"/>
+    <row r="505" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ505"/>
     </row>
-    <row r="506" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD506"/>
+    <row r="506" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ506"/>
     </row>
-    <row r="507" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD507"/>
+    <row r="507" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ507"/>
     </row>
-    <row r="508" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD508"/>
+    <row r="508" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ508"/>
     </row>
-    <row r="509" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD509"/>
+    <row r="509" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ509"/>
     </row>
-    <row r="510" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD510"/>
+    <row r="510" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ510"/>
     </row>
-    <row r="511" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD511"/>
+    <row r="511" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ511"/>
     </row>
-    <row r="512" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD512"/>
+    <row r="512" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ512"/>
     </row>
-    <row r="513" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD513"/>
+    <row r="513" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ513"/>
     </row>
-    <row r="514" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD514"/>
+    <row r="514" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ514"/>
     </row>
-    <row r="515" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD515"/>
+    <row r="515" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ515"/>
     </row>
-    <row r="516" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD516"/>
+    <row r="516" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ516"/>
     </row>
-    <row r="517" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD517"/>
+    <row r="517" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ517"/>
     </row>
-    <row r="518" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD518"/>
+    <row r="518" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ518"/>
     </row>
-    <row r="519" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD519"/>
+    <row r="519" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ519"/>
     </row>
-    <row r="520" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD520"/>
+    <row r="520" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ520"/>
     </row>
-    <row r="521" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD521"/>
+    <row r="521" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ521"/>
     </row>
-    <row r="522" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD522"/>
+    <row r="522" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ522"/>
     </row>
-    <row r="523" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD523"/>
+    <row r="523" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ523"/>
     </row>
-    <row r="524" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD524"/>
+    <row r="524" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ524"/>
     </row>
-    <row r="525" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD525"/>
+    <row r="525" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ525"/>
     </row>
-    <row r="526" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD526"/>
+    <row r="526" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ526"/>
     </row>
-    <row r="527" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD527"/>
+    <row r="527" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ527"/>
     </row>
-    <row r="528" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD528"/>
+    <row r="528" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ528"/>
     </row>
-    <row r="529" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD529"/>
+    <row r="529" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ529"/>
     </row>
-    <row r="530" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD530"/>
+    <row r="530" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ530"/>
     </row>
-    <row r="531" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD531"/>
+    <row r="531" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ531"/>
     </row>
-    <row r="532" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD532"/>
+    <row r="532" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ532"/>
     </row>
-    <row r="533" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD533"/>
+    <row r="533" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ533"/>
     </row>
-    <row r="534" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD534"/>
+    <row r="534" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ534"/>
     </row>
-    <row r="535" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD535"/>
+    <row r="535" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ535"/>
     </row>
-    <row r="536" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD536"/>
+    <row r="536" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ536"/>
     </row>
-    <row r="537" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD537"/>
+    <row r="537" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ537"/>
     </row>
-    <row r="538" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD538"/>
+    <row r="538" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ538"/>
     </row>
-    <row r="539" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD539"/>
+    <row r="539" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ539"/>
     </row>
-    <row r="540" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD540"/>
+    <row r="540" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ540"/>
     </row>
-    <row r="541" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD541"/>
+    <row r="541" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ541"/>
     </row>
-    <row r="542" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD542"/>
+    <row r="542" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ542"/>
     </row>
-    <row r="543" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD543"/>
+    <row r="543" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ543"/>
     </row>
-    <row r="544" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD544"/>
+    <row r="544" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ544"/>
     </row>
-    <row r="545" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD545"/>
+    <row r="545" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ545"/>
     </row>
-    <row r="546" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD546"/>
+    <row r="546" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ546"/>
     </row>
-    <row r="547" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD547"/>
+    <row r="547" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ547"/>
     </row>
-    <row r="548" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD548"/>
+    <row r="548" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ548"/>
     </row>
-    <row r="549" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD549"/>
+    <row r="549" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ549"/>
     </row>
-    <row r="550" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD550"/>
+    <row r="550" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ550"/>
     </row>
-    <row r="551" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD551"/>
+    <row r="551" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ551"/>
     </row>
-    <row r="552" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD552"/>
+    <row r="552" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ552"/>
     </row>
-    <row r="553" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD553"/>
+    <row r="553" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ553"/>
     </row>
-    <row r="554" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD554"/>
+    <row r="554" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ554"/>
     </row>
-    <row r="555" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD555"/>
+    <row r="555" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ555"/>
     </row>
-    <row r="556" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD556"/>
+    <row r="556" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ556"/>
     </row>
-    <row r="557" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD557"/>
+    <row r="557" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ557"/>
     </row>
-    <row r="558" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD558"/>
+    <row r="558" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ558"/>
     </row>
-    <row r="559" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD559"/>
+    <row r="559" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ559"/>
     </row>
-    <row r="560" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD560"/>
+    <row r="560" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ560"/>
     </row>
-    <row r="561" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD561"/>
+    <row r="561" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ561"/>
     </row>
-    <row r="562" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD562"/>
+    <row r="562" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ562"/>
     </row>
-    <row r="563" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD563"/>
+    <row r="563" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ563"/>
     </row>
-    <row r="564" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD564"/>
+    <row r="564" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ564"/>
     </row>
-    <row r="565" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD565"/>
+    <row r="565" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ565"/>
     </row>
-    <row r="566" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD566"/>
+    <row r="566" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ566"/>
     </row>
-    <row r="567" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD567"/>
+    <row r="567" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ567"/>
     </row>
-    <row r="568" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD568"/>
+    <row r="568" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ568"/>
     </row>
-    <row r="569" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD569"/>
+    <row r="569" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ569"/>
     </row>
-    <row r="570" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD570"/>
+    <row r="570" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ570"/>
     </row>
-    <row r="571" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD571"/>
+    <row r="571" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ571"/>
     </row>
-    <row r="572" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD572"/>
+    <row r="572" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ572"/>
     </row>
-    <row r="573" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD573"/>
+    <row r="573" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ573"/>
     </row>
-    <row r="574" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD574"/>
+    <row r="574" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ574"/>
     </row>
-    <row r="575" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD575"/>
+    <row r="575" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ575"/>
     </row>
-    <row r="576" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD576"/>
+    <row r="576" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ576"/>
     </row>
-    <row r="577" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD577"/>
+    <row r="577" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ577"/>
     </row>
-    <row r="578" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD578"/>
+    <row r="578" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ578"/>
     </row>
-    <row r="579" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD579"/>
+    <row r="579" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ579"/>
     </row>
-    <row r="580" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD580"/>
+    <row r="580" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ580"/>
     </row>
-    <row r="581" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD581"/>
+    <row r="581" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ581"/>
     </row>
-    <row r="582" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD582"/>
+    <row r="582" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ582"/>
     </row>
-    <row r="583" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD583"/>
+    <row r="583" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ583"/>
     </row>
-    <row r="584" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD584"/>
+    <row r="584" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ584"/>
     </row>
-    <row r="585" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD585"/>
+    <row r="585" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ585"/>
     </row>
-    <row r="586" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD586"/>
+    <row r="586" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ586"/>
     </row>
-    <row r="587" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD587"/>
+    <row r="587" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ587"/>
     </row>
-    <row r="588" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD588"/>
+    <row r="588" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ588"/>
     </row>
-    <row r="589" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD589"/>
+    <row r="589" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ589"/>
     </row>
-    <row r="590" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD590"/>
+    <row r="590" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ590"/>
     </row>
-    <row r="591" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD591"/>
+    <row r="591" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ591"/>
     </row>
-    <row r="592" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD592"/>
+    <row r="592" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ592"/>
     </row>
-    <row r="593" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD593"/>
+    <row r="593" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ593"/>
     </row>
-    <row r="594" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD594"/>
+    <row r="594" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ594"/>
     </row>
-    <row r="595" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD595"/>
+    <row r="595" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ595"/>
     </row>
-    <row r="596" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD596"/>
+    <row r="596" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ596"/>
     </row>
-    <row r="597" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD597"/>
+    <row r="597" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ597"/>
     </row>
-    <row r="598" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD598"/>
+    <row r="598" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ598"/>
     </row>
-    <row r="599" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD599"/>
+    <row r="599" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ599"/>
     </row>
-    <row r="600" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD600"/>
+    <row r="600" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ600"/>
     </row>
-    <row r="601" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD601"/>
+    <row r="601" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ601"/>
     </row>
-    <row r="602" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD602"/>
+    <row r="602" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ602"/>
     </row>
-    <row r="603" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD603"/>
+    <row r="603" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ603"/>
     </row>
-    <row r="604" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD604"/>
+    <row r="604" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ604"/>
     </row>
-    <row r="605" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD605"/>
+    <row r="605" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ605"/>
     </row>
-    <row r="606" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD606"/>
+    <row r="606" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ606"/>
     </row>
-    <row r="607" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD607"/>
+    <row r="607" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ607"/>
     </row>
-    <row r="608" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD608"/>
+    <row r="608" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ608"/>
     </row>
-    <row r="609" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD609"/>
+    <row r="609" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ609"/>
     </row>
-    <row r="610" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD610"/>
+    <row r="610" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ610"/>
     </row>
-    <row r="611" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD611"/>
+    <row r="611" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ611"/>
     </row>
-    <row r="612" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD612"/>
+    <row r="612" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ612"/>
     </row>
-    <row r="613" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD613"/>
+    <row r="613" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ613"/>
     </row>
-    <row r="614" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD614"/>
+    <row r="614" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ614"/>
     </row>
-    <row r="615" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD615"/>
+    <row r="615" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ615"/>
     </row>
-    <row r="616" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD616"/>
+    <row r="616" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ616"/>
     </row>
-    <row r="617" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD617"/>
+    <row r="617" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ617"/>
     </row>
-    <row r="618" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD618"/>
+    <row r="618" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ618"/>
     </row>
-    <row r="619" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD619"/>
+    <row r="619" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ619"/>
     </row>
-    <row r="620" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD620"/>
+    <row r="620" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ620"/>
     </row>
-    <row r="621" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD621"/>
+    <row r="621" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ621"/>
     </row>
-    <row r="622" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD622"/>
+    <row r="622" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ622"/>
     </row>
-    <row r="623" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD623"/>
+    <row r="623" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ623"/>
     </row>
-    <row r="624" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD624"/>
+    <row r="624" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ624"/>
     </row>
-    <row r="625" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD625"/>
+    <row r="625" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ625"/>
     </row>
-    <row r="626" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD626"/>
+    <row r="626" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ626"/>
     </row>
-    <row r="627" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD627"/>
+    <row r="627" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ627"/>
     </row>
-    <row r="628" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD628"/>
+    <row r="628" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ628"/>
     </row>
-    <row r="629" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD629"/>
+    <row r="629" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ629"/>
     </row>
-    <row r="630" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD630"/>
+    <row r="630" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ630"/>
     </row>
-    <row r="631" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD631"/>
+    <row r="631" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ631"/>
     </row>
-    <row r="632" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD632"/>
+    <row r="632" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ632"/>
     </row>
-    <row r="633" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD633"/>
+    <row r="633" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ633"/>
     </row>
-    <row r="634" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD634"/>
+    <row r="634" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ634"/>
     </row>
-    <row r="635" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD635"/>
+    <row r="635" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ635"/>
     </row>
-    <row r="636" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD636"/>
+    <row r="636" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ636"/>
     </row>
-    <row r="637" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD637"/>
+    <row r="637" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ637"/>
     </row>
-    <row r="638" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD638"/>
+    <row r="638" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ638"/>
     </row>
-    <row r="639" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD639"/>
+    <row r="639" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ639"/>
     </row>
-    <row r="640" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD640"/>
+    <row r="640" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ640"/>
     </row>
-    <row r="641" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD641"/>
+    <row r="641" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ641"/>
     </row>
-    <row r="642" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD642"/>
+    <row r="642" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ642"/>
     </row>
-    <row r="643" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD643"/>
+    <row r="643" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ643"/>
     </row>
-    <row r="644" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD644"/>
+    <row r="644" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ644"/>
     </row>
-    <row r="645" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD645"/>
+    <row r="645" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ645"/>
     </row>
-    <row r="646" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD646"/>
+    <row r="646" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ646"/>
     </row>
-    <row r="647" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD647"/>
+    <row r="647" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ647"/>
     </row>
-    <row r="648" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD648"/>
+    <row r="648" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ648"/>
     </row>
-    <row r="649" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD649"/>
+    <row r="649" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ649"/>
     </row>
-    <row r="650" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD650"/>
+    <row r="650" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ650"/>
     </row>
-    <row r="651" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD651"/>
+    <row r="651" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ651"/>
     </row>
-    <row r="652" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD652"/>
+    <row r="652" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ652"/>
     </row>
-    <row r="653" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD653"/>
+    <row r="653" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ653"/>
     </row>
-    <row r="654" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD654"/>
+    <row r="654" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ654"/>
     </row>
-    <row r="655" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD655"/>
+    <row r="655" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ655"/>
     </row>
-    <row r="656" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD656"/>
+    <row r="656" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ656"/>
     </row>
-    <row r="657" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD657"/>
+    <row r="657" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ657"/>
     </row>
-    <row r="658" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD658"/>
+    <row r="658" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ658"/>
     </row>
-    <row r="659" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD659"/>
+    <row r="659" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ659"/>
     </row>
-    <row r="660" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD660"/>
+    <row r="660" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ660"/>
     </row>
-    <row r="661" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD661"/>
+    <row r="661" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ661"/>
     </row>
-    <row r="662" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD662"/>
+    <row r="662" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ662"/>
     </row>
-    <row r="663" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD663"/>
+    <row r="663" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ663"/>
     </row>
-    <row r="664" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD664"/>
+    <row r="664" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ664"/>
     </row>
-    <row r="665" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD665"/>
+    <row r="665" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ665"/>
     </row>
-    <row r="666" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD666"/>
+    <row r="666" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ666"/>
     </row>
-    <row r="667" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD667"/>
+    <row r="667" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ667"/>
     </row>
-    <row r="668" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD668"/>
+    <row r="668" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ668"/>
     </row>
-    <row r="669" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD669"/>
+    <row r="669" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ669"/>
     </row>
-    <row r="670" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD670"/>
+    <row r="670" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ670"/>
     </row>
-    <row r="671" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD671"/>
+    <row r="671" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ671"/>
     </row>
-    <row r="672" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD672"/>
+    <row r="672" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ672"/>
     </row>
-    <row r="673" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD673"/>
+    <row r="673" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ673"/>
     </row>
-    <row r="674" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD674"/>
+    <row r="674" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ674"/>
     </row>
-    <row r="675" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD675"/>
+    <row r="675" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ675"/>
     </row>
-    <row r="676" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD676"/>
+    <row r="676" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ676"/>
     </row>
-    <row r="677" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD677"/>
+    <row r="677" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ677"/>
     </row>
-    <row r="678" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD678"/>
+    <row r="678" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ678"/>
     </row>
-    <row r="679" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD679"/>
+    <row r="679" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ679"/>
     </row>
-    <row r="680" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD680"/>
+    <row r="680" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ680"/>
     </row>
-    <row r="681" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD681"/>
+    <row r="681" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ681"/>
     </row>
-    <row r="682" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD682"/>
+    <row r="682" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ682"/>
     </row>
-    <row r="683" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD683"/>
+    <row r="683" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ683"/>
     </row>
-    <row r="684" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD684"/>
+    <row r="684" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ684"/>
     </row>
-    <row r="685" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD685"/>
+    <row r="685" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ685"/>
     </row>
-    <row r="686" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD686"/>
+    <row r="686" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ686"/>
     </row>
-    <row r="687" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD687"/>
+    <row r="687" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ687"/>
     </row>
-    <row r="688" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD688"/>
+    <row r="688" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ688"/>
     </row>
-    <row r="689" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD689"/>
+    <row r="689" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ689"/>
     </row>
-    <row r="690" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD690"/>
+    <row r="690" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ690"/>
     </row>
-    <row r="691" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD691"/>
+    <row r="691" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ691"/>
     </row>
-    <row r="692" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD692"/>
+    <row r="692" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ692"/>
     </row>
-    <row r="693" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD693"/>
+    <row r="693" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ693"/>
     </row>
-    <row r="694" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD694"/>
+    <row r="694" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ694"/>
     </row>
-    <row r="695" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD695"/>
+    <row r="695" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ695"/>
     </row>
-    <row r="696" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD696"/>
+    <row r="696" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ696"/>
     </row>
-    <row r="697" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD697"/>
+    <row r="697" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ697"/>
     </row>
-    <row r="698" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD698"/>
+    <row r="698" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ698"/>
     </row>
-    <row r="699" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD699"/>
+    <row r="699" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ699"/>
     </row>
-    <row r="700" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD700"/>
+    <row r="700" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ700"/>
     </row>
-    <row r="701" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD701"/>
+    <row r="701" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ701"/>
     </row>
-    <row r="702" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD702"/>
+    <row r="702" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ702"/>
     </row>
-    <row r="703" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD703"/>
+    <row r="703" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ703"/>
     </row>
-    <row r="704" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD704"/>
+    <row r="704" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ704"/>
     </row>
-    <row r="705" spans="56:130" x14ac:dyDescent="0.25">
-      <c r="BD705"/>
+    <row r="705" spans="130:130" x14ac:dyDescent="0.25">
       <c r="DZ705"/>
     </row>
   </sheetData>

--- a/Template/Export/Sari_Cases_18.xlsx
+++ b/Template/Export/Sari_Cases_18.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>ID</t>
   </si>
@@ -706,6 +706,15 @@
   </si>
   <si>
     <t>final_res_lineage3</t>
+  </si>
+  <si>
+    <t>genetic_group</t>
+  </si>
+  <si>
+    <t>genetic_group2</t>
+  </si>
+  <si>
+    <t>genetic_group3</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HU705"/>
+  <dimension ref="A1:HX705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1207,75 +1216,78 @@
     <col min="153" max="153" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="17.28515625" customWidth="1"/>
     <col min="155" max="155" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="18" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="18" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="18" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="18.140625" customWidth="1"/>
-    <col min="211" max="211" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="18" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="15" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="17" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="18" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="18" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="18" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="18.140625" customWidth="1"/>
+    <col min="214" max="214" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="18" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="15" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="17" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:232" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1741,236 +1753,245 @@
       <c r="EY1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="EZ1" s="14" t="s">
+      <c r="EZ1" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="FA1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="FA1" s="14" t="s">
+      <c r="FB1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="FB1" s="14" t="s">
+      <c r="FC1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="FC1" s="14" t="s">
+      <c r="FD1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="FD1" s="12" t="s">
+      <c r="FE1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="FF1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="FE1" s="12" t="s">
+      <c r="FG1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="FF1" s="12" t="s">
+      <c r="FH1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="FG1" s="12" t="s">
+      <c r="FI1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FJ1" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="FK1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="FO1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FP1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="FP1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FT1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="FW1" s="7" t="s">
+      <c r="FZ1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="GA1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="FZ1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GD1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GK1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GT1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GU1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="GS1" s="7" t="s">
+      <c r="GV1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="GT1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GX1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HE1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HF1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="HD1" s="7" t="s">
+      <c r="HG1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="HE1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HI1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HJ1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HL1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="HJ1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="HL1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="HO1" s="7" t="s">
+      <c r="HR1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ2"/>
     </row>
-    <row r="3" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ3"/>
     </row>
-    <row r="4" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:232" x14ac:dyDescent="0.25">
       <c r="BC4" s="10"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="3"/>
@@ -1978,53 +1999,53 @@
       <c r="BG4" s="3"/>
       <c r="DZ4"/>
     </row>
-    <row r="5" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ5"/>
     </row>
-    <row r="6" spans="1:229" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:232" ht="15.75" x14ac:dyDescent="0.25">
       <c r="DZ6"/>
-      <c r="FK6" s="1"/>
-    </row>
-    <row r="7" spans="1:229" x14ac:dyDescent="0.25">
+      <c r="FN6" s="1"/>
+    </row>
+    <row r="7" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ7"/>
-      <c r="FL7"/>
-      <c r="FM7"/>
-      <c r="FW7"/>
-      <c r="FX7"/>
-      <c r="GH7"/>
-      <c r="GI7"/>
-      <c r="GS7"/>
-      <c r="GT7"/>
-      <c r="HD7"/>
-      <c r="HE7"/>
-      <c r="HO7"/>
-      <c r="HP7"/>
-    </row>
-    <row r="8" spans="1:229" x14ac:dyDescent="0.25">
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+    </row>
+    <row r="8" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ8"/>
     </row>
-    <row r="9" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ9"/>
     </row>
-    <row r="10" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ10"/>
     </row>
-    <row r="11" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ11"/>
     </row>
-    <row r="12" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ12"/>
     </row>
-    <row r="13" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ13"/>
     </row>
-    <row r="14" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ14"/>
     </row>
-    <row r="15" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ15"/>
     </row>
-    <row r="16" spans="1:229" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:232" x14ac:dyDescent="0.25">
       <c r="DZ16"/>
     </row>
     <row r="17" spans="130:130" x14ac:dyDescent="0.25">

--- a/Template/Export/Sari_Cases_18.xlsx
+++ b/Template/Export/Sari_Cases_18.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>ID</t>
   </si>
@@ -715,17 +715,27 @@
   </si>
   <si>
     <t>genetic_group3</t>
+  </si>
+  <si>
+    <t>identification_test</t>
+  </si>
+  <si>
+    <t>sample_temperature</t>
+  </si>
+  <si>
+    <t>ICU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -752,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +787,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -790,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -806,6 +822,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HX705"/>
+  <dimension ref="A1:IA705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1196,98 +1216,101 @@
     <col min="127" max="127" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="129" max="130" width="21" style="2" customWidth="1"/>
-    <col min="131" max="131" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="9" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.5703125" style="2" customWidth="1"/>
-    <col min="137" max="137" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="21" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="37.85546875" customWidth="1"/>
-    <col min="147" max="147" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="17.28515625" customWidth="1"/>
-    <col min="155" max="155" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="18" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="18" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="18" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="18.140625" customWidth="1"/>
-    <col min="214" max="214" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="18" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="15" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="17" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="6.42578125" style="2" customWidth="1"/>
+    <col min="132" max="132" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.5703125" style="2" customWidth="1"/>
+    <col min="138" max="138" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="37.85546875" customWidth="1"/>
+    <col min="148" max="148" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="16.7109375" style="17" customWidth="1"/>
+    <col min="151" max="151" width="18.85546875" style="18" customWidth="1"/>
+    <col min="152" max="152" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="17.28515625" customWidth="1"/>
+    <col min="158" max="158" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="18" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="18" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="18" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="18.140625" customWidth="1"/>
+    <col min="217" max="217" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="18" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="15" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="17" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:235" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1679,2441 +1702,3154 @@
         <v>107</v>
       </c>
       <c r="EA1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="EB1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EC1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="ED1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EF1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="EF1" s="6" t="s">
+      <c r="EG1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EH1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="EH1" s="6" t="s">
+      <c r="EI1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EM1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="EP1" s="6" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="ER1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="ES1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="ET1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="EU1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="EV1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="ET1" s="7" t="s">
+      <c r="EW1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EX1" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="EV1" s="12" t="s">
+      <c r="EY1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="EW1" s="12" t="s">
+      <c r="EZ1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="EX1" s="12" t="s">
+      <c r="FA1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="EY1" s="12" t="s">
+      <c r="FB1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="EZ1" s="12" t="s">
+      <c r="FC1" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="FA1" s="14" t="s">
+      <c r="FD1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="FB1" s="14" t="s">
+      <c r="FE1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="FC1" s="14" t="s">
+      <c r="FF1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="FD1" s="14" t="s">
+      <c r="FG1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="FE1" s="14" t="s">
+      <c r="FH1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="FF1" s="12" t="s">
+      <c r="FI1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="FG1" s="12" t="s">
+      <c r="FJ1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="FH1" s="12" t="s">
+      <c r="FK1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="FI1" s="12" t="s">
+      <c r="FL1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="FJ1" s="12" t="s">
+      <c r="FM1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FP1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="FO1" s="7" t="s">
+      <c r="FR1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="FP1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FT1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="GA1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="FZ1" s="7" t="s">
+      <c r="GC1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GD1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GK1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GN1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GT1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GU1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GV1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="GT1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GX1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="GV1" s="7" t="s">
+      <c r="GY1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HE1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HF1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="HE1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HI1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="HG1" s="7" t="s">
+      <c r="HJ1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HL1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="HJ1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="HL1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="HR1" s="7" t="s">
+      <c r="HU1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="HY1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:232" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ2"/>
-    </row>
-    <row r="3" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA2"/>
+    </row>
+    <row r="3" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ3"/>
-    </row>
-    <row r="4" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA3"/>
+    </row>
+    <row r="4" spans="1:235" x14ac:dyDescent="0.25">
       <c r="BC4" s="10"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="3"/>
       <c r="DZ4"/>
-    </row>
-    <row r="5" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA4"/>
+    </row>
+    <row r="5" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ5"/>
-    </row>
-    <row r="6" spans="1:232" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="EA5"/>
+    </row>
+    <row r="6" spans="1:235" ht="15.75" x14ac:dyDescent="0.25">
       <c r="DZ6"/>
-      <c r="FN6" s="1"/>
-    </row>
-    <row r="7" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA6"/>
+      <c r="FQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ7"/>
-      <c r="FO7"/>
-      <c r="FP7"/>
-      <c r="FZ7"/>
-      <c r="GA7"/>
-      <c r="GK7"/>
-      <c r="GL7"/>
-      <c r="GV7"/>
-      <c r="GW7"/>
-      <c r="HG7"/>
-      <c r="HH7"/>
-      <c r="HR7"/>
-      <c r="HS7"/>
-    </row>
-    <row r="8" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+    </row>
+    <row r="8" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ8"/>
-    </row>
-    <row r="9" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA8"/>
+    </row>
+    <row r="9" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ9"/>
-    </row>
-    <row r="10" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA9"/>
+    </row>
+    <row r="10" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ10"/>
-    </row>
-    <row r="11" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA10"/>
+    </row>
+    <row r="11" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ11"/>
-    </row>
-    <row r="12" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA11"/>
+    </row>
+    <row r="12" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ12"/>
-    </row>
-    <row r="13" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA12"/>
+    </row>
+    <row r="13" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ13"/>
-    </row>
-    <row r="14" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA13"/>
+    </row>
+    <row r="14" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ14"/>
-    </row>
-    <row r="15" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA14"/>
+    </row>
+    <row r="15" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ15"/>
-    </row>
-    <row r="16" spans="1:232" x14ac:dyDescent="0.25">
+      <c r="EA15"/>
+    </row>
+    <row r="16" spans="1:235" x14ac:dyDescent="0.25">
       <c r="DZ16"/>
-    </row>
-    <row r="17" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA16"/>
+    </row>
+    <row r="17" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ17"/>
-    </row>
-    <row r="18" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA17"/>
+    </row>
+    <row r="18" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ18"/>
-    </row>
-    <row r="19" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA18"/>
+    </row>
+    <row r="19" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ19"/>
-    </row>
-    <row r="20" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA19"/>
+    </row>
+    <row r="20" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ20"/>
-    </row>
-    <row r="21" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA20"/>
+    </row>
+    <row r="21" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ21"/>
-    </row>
-    <row r="22" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA21"/>
+    </row>
+    <row r="22" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ22"/>
-    </row>
-    <row r="23" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA22"/>
+    </row>
+    <row r="23" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ23"/>
-    </row>
-    <row r="24" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA23"/>
+    </row>
+    <row r="24" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ24"/>
-    </row>
-    <row r="25" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA24"/>
+    </row>
+    <row r="25" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ25"/>
-    </row>
-    <row r="26" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA25"/>
+    </row>
+    <row r="26" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ26"/>
-    </row>
-    <row r="27" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA26"/>
+    </row>
+    <row r="27" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ27"/>
-    </row>
-    <row r="28" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA27"/>
+    </row>
+    <row r="28" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ28"/>
-    </row>
-    <row r="29" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA28"/>
+    </row>
+    <row r="29" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ29"/>
-    </row>
-    <row r="30" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA29"/>
+    </row>
+    <row r="30" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ30"/>
-    </row>
-    <row r="31" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA30"/>
+    </row>
+    <row r="31" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ31"/>
-    </row>
-    <row r="32" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA31"/>
+    </row>
+    <row r="32" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ32"/>
-    </row>
-    <row r="33" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA32"/>
+    </row>
+    <row r="33" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ33"/>
-    </row>
-    <row r="34" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA33"/>
+    </row>
+    <row r="34" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ34"/>
-    </row>
-    <row r="35" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA34"/>
+    </row>
+    <row r="35" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ35"/>
-    </row>
-    <row r="36" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA35"/>
+    </row>
+    <row r="36" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ36"/>
-    </row>
-    <row r="37" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA36"/>
+    </row>
+    <row r="37" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ37"/>
-    </row>
-    <row r="38" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA37"/>
+    </row>
+    <row r="38" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ38"/>
-    </row>
-    <row r="39" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA38"/>
+    </row>
+    <row r="39" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ39"/>
-    </row>
-    <row r="40" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA39"/>
+    </row>
+    <row r="40" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ40"/>
-    </row>
-    <row r="41" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA40"/>
+    </row>
+    <row r="41" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ41"/>
-    </row>
-    <row r="42" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA41"/>
+    </row>
+    <row r="42" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ42"/>
-    </row>
-    <row r="43" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA42"/>
+    </row>
+    <row r="43" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ43"/>
-    </row>
-    <row r="44" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA43"/>
+    </row>
+    <row r="44" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ44"/>
-    </row>
-    <row r="45" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA44"/>
+    </row>
+    <row r="45" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ45"/>
-    </row>
-    <row r="46" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA45"/>
+    </row>
+    <row r="46" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ46"/>
-    </row>
-    <row r="47" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA46"/>
+    </row>
+    <row r="47" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ47"/>
-    </row>
-    <row r="48" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA47"/>
+    </row>
+    <row r="48" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ48"/>
-    </row>
-    <row r="49" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA48"/>
+    </row>
+    <row r="49" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ49"/>
-    </row>
-    <row r="50" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA49"/>
+    </row>
+    <row r="50" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ50"/>
-    </row>
-    <row r="51" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA50"/>
+    </row>
+    <row r="51" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ51"/>
-    </row>
-    <row r="52" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA51"/>
+    </row>
+    <row r="52" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ52"/>
-    </row>
-    <row r="53" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA52"/>
+    </row>
+    <row r="53" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ53"/>
-    </row>
-    <row r="54" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA53"/>
+    </row>
+    <row r="54" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ54"/>
-    </row>
-    <row r="55" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA54"/>
+    </row>
+    <row r="55" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ55"/>
-    </row>
-    <row r="56" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA55"/>
+    </row>
+    <row r="56" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ56"/>
-    </row>
-    <row r="57" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA56"/>
+    </row>
+    <row r="57" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ57"/>
-    </row>
-    <row r="58" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA57"/>
+    </row>
+    <row r="58" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ58"/>
-    </row>
-    <row r="59" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA58"/>
+    </row>
+    <row r="59" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ59"/>
-    </row>
-    <row r="60" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA59"/>
+    </row>
+    <row r="60" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ60"/>
-    </row>
-    <row r="61" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA60"/>
+    </row>
+    <row r="61" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ61"/>
-    </row>
-    <row r="62" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA61"/>
+    </row>
+    <row r="62" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ62"/>
-    </row>
-    <row r="63" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA62"/>
+    </row>
+    <row r="63" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ63"/>
-    </row>
-    <row r="64" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA63"/>
+    </row>
+    <row r="64" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ64"/>
-    </row>
-    <row r="65" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA64"/>
+    </row>
+    <row r="65" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ65"/>
-    </row>
-    <row r="66" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA65"/>
+    </row>
+    <row r="66" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ66"/>
-    </row>
-    <row r="67" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA66"/>
+    </row>
+    <row r="67" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ67"/>
-    </row>
-    <row r="68" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA67"/>
+    </row>
+    <row r="68" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ68"/>
-    </row>
-    <row r="69" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA68"/>
+    </row>
+    <row r="69" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ69"/>
-    </row>
-    <row r="70" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA69"/>
+    </row>
+    <row r="70" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ70"/>
-    </row>
-    <row r="71" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA70"/>
+    </row>
+    <row r="71" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ71"/>
-    </row>
-    <row r="72" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA71"/>
+    </row>
+    <row r="72" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ72"/>
-    </row>
-    <row r="73" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA72"/>
+    </row>
+    <row r="73" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ73"/>
-    </row>
-    <row r="74" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA73"/>
+    </row>
+    <row r="74" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ74"/>
-    </row>
-    <row r="75" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA74"/>
+    </row>
+    <row r="75" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ75"/>
-    </row>
-    <row r="76" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA75"/>
+    </row>
+    <row r="76" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ76"/>
-    </row>
-    <row r="77" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA76"/>
+    </row>
+    <row r="77" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ77"/>
-    </row>
-    <row r="78" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA77"/>
+    </row>
+    <row r="78" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ78"/>
-    </row>
-    <row r="79" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA78"/>
+    </row>
+    <row r="79" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ79"/>
-    </row>
-    <row r="80" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA79"/>
+    </row>
+    <row r="80" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ80"/>
-    </row>
-    <row r="81" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA80"/>
+    </row>
+    <row r="81" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ81"/>
-    </row>
-    <row r="82" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA81"/>
+    </row>
+    <row r="82" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ82"/>
-    </row>
-    <row r="83" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA82"/>
+    </row>
+    <row r="83" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ83"/>
-    </row>
-    <row r="84" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA83"/>
+    </row>
+    <row r="84" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ84"/>
-    </row>
-    <row r="85" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA84"/>
+    </row>
+    <row r="85" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ85"/>
-    </row>
-    <row r="86" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA85"/>
+    </row>
+    <row r="86" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ86"/>
-    </row>
-    <row r="87" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA86"/>
+    </row>
+    <row r="87" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ87"/>
-    </row>
-    <row r="88" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA87"/>
+    </row>
+    <row r="88" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ88"/>
-    </row>
-    <row r="89" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA88"/>
+    </row>
+    <row r="89" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ89"/>
-    </row>
-    <row r="90" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA89"/>
+    </row>
+    <row r="90" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ90"/>
-    </row>
-    <row r="91" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA90"/>
+    </row>
+    <row r="91" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ91"/>
-    </row>
-    <row r="92" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA91"/>
+    </row>
+    <row r="92" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ92"/>
-    </row>
-    <row r="93" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA92"/>
+    </row>
+    <row r="93" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ93"/>
-    </row>
-    <row r="94" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA93"/>
+    </row>
+    <row r="94" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ94"/>
-    </row>
-    <row r="95" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA94"/>
+    </row>
+    <row r="95" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ95"/>
-    </row>
-    <row r="96" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA95"/>
+    </row>
+    <row r="96" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ96"/>
-    </row>
-    <row r="97" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA96"/>
+    </row>
+    <row r="97" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ97"/>
-    </row>
-    <row r="98" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA97"/>
+    </row>
+    <row r="98" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ98"/>
-    </row>
-    <row r="99" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA98"/>
+    </row>
+    <row r="99" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ99"/>
-    </row>
-    <row r="100" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA99"/>
+    </row>
+    <row r="100" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ100"/>
-    </row>
-    <row r="101" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA100"/>
+    </row>
+    <row r="101" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ101"/>
-    </row>
-    <row r="102" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA101"/>
+    </row>
+    <row r="102" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ102"/>
-    </row>
-    <row r="103" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA102"/>
+    </row>
+    <row r="103" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ103"/>
-    </row>
-    <row r="104" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA103"/>
+    </row>
+    <row r="104" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ104"/>
-    </row>
-    <row r="105" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA104"/>
+    </row>
+    <row r="105" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ105"/>
-    </row>
-    <row r="106" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA105"/>
+    </row>
+    <row r="106" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ106"/>
-    </row>
-    <row r="107" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA106"/>
+    </row>
+    <row r="107" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ107"/>
-    </row>
-    <row r="108" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA107"/>
+    </row>
+    <row r="108" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ108"/>
-    </row>
-    <row r="109" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA108"/>
+    </row>
+    <row r="109" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ109"/>
-    </row>
-    <row r="110" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA109"/>
+    </row>
+    <row r="110" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ110"/>
-    </row>
-    <row r="111" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA110"/>
+    </row>
+    <row r="111" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ111"/>
-    </row>
-    <row r="112" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA111"/>
+    </row>
+    <row r="112" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ112"/>
-    </row>
-    <row r="113" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA112"/>
+    </row>
+    <row r="113" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ113"/>
-    </row>
-    <row r="114" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA113"/>
+    </row>
+    <row r="114" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ114"/>
-    </row>
-    <row r="115" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA114"/>
+    </row>
+    <row r="115" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ115"/>
-    </row>
-    <row r="116" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA115"/>
+    </row>
+    <row r="116" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ116"/>
-    </row>
-    <row r="117" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA116"/>
+    </row>
+    <row r="117" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ117"/>
-    </row>
-    <row r="118" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA117"/>
+    </row>
+    <row r="118" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ118"/>
-    </row>
-    <row r="119" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA118"/>
+    </row>
+    <row r="119" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ119"/>
-    </row>
-    <row r="120" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA119"/>
+    </row>
+    <row r="120" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ120"/>
-    </row>
-    <row r="121" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA120"/>
+    </row>
+    <row r="121" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ121"/>
-    </row>
-    <row r="122" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA121"/>
+    </row>
+    <row r="122" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ122"/>
-    </row>
-    <row r="123" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA122"/>
+    </row>
+    <row r="123" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ123"/>
-    </row>
-    <row r="124" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA123"/>
+    </row>
+    <row r="124" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ124"/>
-    </row>
-    <row r="125" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA124"/>
+    </row>
+    <row r="125" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ125"/>
-    </row>
-    <row r="126" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA125"/>
+    </row>
+    <row r="126" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ126"/>
-    </row>
-    <row r="127" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA126"/>
+    </row>
+    <row r="127" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ127"/>
-    </row>
-    <row r="128" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA127"/>
+    </row>
+    <row r="128" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ128"/>
-    </row>
-    <row r="129" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA128"/>
+    </row>
+    <row r="129" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ129"/>
-    </row>
-    <row r="130" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA129"/>
+    </row>
+    <row r="130" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ130"/>
-    </row>
-    <row r="131" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA130"/>
+    </row>
+    <row r="131" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ131"/>
-    </row>
-    <row r="132" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA131"/>
+    </row>
+    <row r="132" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ132"/>
-    </row>
-    <row r="133" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA132"/>
+    </row>
+    <row r="133" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ133"/>
-    </row>
-    <row r="134" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA133"/>
+    </row>
+    <row r="134" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ134"/>
-    </row>
-    <row r="135" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA134"/>
+    </row>
+    <row r="135" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ135"/>
-    </row>
-    <row r="136" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA135"/>
+    </row>
+    <row r="136" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ136"/>
-    </row>
-    <row r="137" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA136"/>
+    </row>
+    <row r="137" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ137"/>
-    </row>
-    <row r="138" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA137"/>
+    </row>
+    <row r="138" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ138"/>
-    </row>
-    <row r="139" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA138"/>
+    </row>
+    <row r="139" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ139"/>
-    </row>
-    <row r="140" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA139"/>
+    </row>
+    <row r="140" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ140"/>
-    </row>
-    <row r="141" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA140"/>
+    </row>
+    <row r="141" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ141"/>
-    </row>
-    <row r="142" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA141"/>
+    </row>
+    <row r="142" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ142"/>
-    </row>
-    <row r="143" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA142"/>
+    </row>
+    <row r="143" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ143"/>
-    </row>
-    <row r="144" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA143"/>
+    </row>
+    <row r="144" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ144"/>
-    </row>
-    <row r="145" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA144"/>
+    </row>
+    <row r="145" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ145"/>
-    </row>
-    <row r="146" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA145"/>
+    </row>
+    <row r="146" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ146"/>
-    </row>
-    <row r="147" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA146"/>
+    </row>
+    <row r="147" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ147"/>
-    </row>
-    <row r="148" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA147"/>
+    </row>
+    <row r="148" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ148"/>
-    </row>
-    <row r="149" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA148"/>
+    </row>
+    <row r="149" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ149"/>
-    </row>
-    <row r="150" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA149"/>
+    </row>
+    <row r="150" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ150"/>
-    </row>
-    <row r="151" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA150"/>
+    </row>
+    <row r="151" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ151"/>
-    </row>
-    <row r="152" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA151"/>
+    </row>
+    <row r="152" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ152"/>
-    </row>
-    <row r="153" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA152"/>
+    </row>
+    <row r="153" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ153"/>
-    </row>
-    <row r="154" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA153"/>
+    </row>
+    <row r="154" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ154"/>
-    </row>
-    <row r="155" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA154"/>
+    </row>
+    <row r="155" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ155"/>
-    </row>
-    <row r="156" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA155"/>
+    </row>
+    <row r="156" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ156"/>
-    </row>
-    <row r="157" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA156"/>
+    </row>
+    <row r="157" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ157"/>
-    </row>
-    <row r="158" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA157"/>
+    </row>
+    <row r="158" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ158"/>
-    </row>
-    <row r="159" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA158"/>
+    </row>
+    <row r="159" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ159"/>
-    </row>
-    <row r="160" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA159"/>
+    </row>
+    <row r="160" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ160"/>
-    </row>
-    <row r="161" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA160"/>
+    </row>
+    <row r="161" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ161"/>
-    </row>
-    <row r="162" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA161"/>
+    </row>
+    <row r="162" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ162"/>
-    </row>
-    <row r="163" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA162"/>
+    </row>
+    <row r="163" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ163"/>
-    </row>
-    <row r="164" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA163"/>
+    </row>
+    <row r="164" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ164"/>
-    </row>
-    <row r="165" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA164"/>
+    </row>
+    <row r="165" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ165"/>
-    </row>
-    <row r="166" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA165"/>
+    </row>
+    <row r="166" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ166"/>
-    </row>
-    <row r="167" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA166"/>
+    </row>
+    <row r="167" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ167"/>
-    </row>
-    <row r="168" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA167"/>
+    </row>
+    <row r="168" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ168"/>
-    </row>
-    <row r="169" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA168"/>
+    </row>
+    <row r="169" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ169"/>
-    </row>
-    <row r="170" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA169"/>
+    </row>
+    <row r="170" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ170"/>
-    </row>
-    <row r="171" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA170"/>
+    </row>
+    <row r="171" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ171"/>
-    </row>
-    <row r="172" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA171"/>
+    </row>
+    <row r="172" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ172"/>
-    </row>
-    <row r="173" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA172"/>
+    </row>
+    <row r="173" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ173"/>
-    </row>
-    <row r="174" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA173"/>
+    </row>
+    <row r="174" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ174"/>
-    </row>
-    <row r="175" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA174"/>
+    </row>
+    <row r="175" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ175"/>
-    </row>
-    <row r="176" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA175"/>
+    </row>
+    <row r="176" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ176"/>
-    </row>
-    <row r="177" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA176"/>
+    </row>
+    <row r="177" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ177"/>
-    </row>
-    <row r="178" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA177"/>
+    </row>
+    <row r="178" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ178"/>
-    </row>
-    <row r="179" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA178"/>
+    </row>
+    <row r="179" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ179"/>
-    </row>
-    <row r="180" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA179"/>
+    </row>
+    <row r="180" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ180"/>
-    </row>
-    <row r="181" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA180"/>
+    </row>
+    <row r="181" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ181"/>
-    </row>
-    <row r="182" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA181"/>
+    </row>
+    <row r="182" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ182"/>
-    </row>
-    <row r="183" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA182"/>
+    </row>
+    <row r="183" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ183"/>
-    </row>
-    <row r="184" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA183"/>
+    </row>
+    <row r="184" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ184"/>
-    </row>
-    <row r="185" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA184"/>
+    </row>
+    <row r="185" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ185"/>
-    </row>
-    <row r="186" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA185"/>
+    </row>
+    <row r="186" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ186"/>
-    </row>
-    <row r="187" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA186"/>
+    </row>
+    <row r="187" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ187"/>
-    </row>
-    <row r="188" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA187"/>
+    </row>
+    <row r="188" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ188"/>
-    </row>
-    <row r="189" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA188"/>
+    </row>
+    <row r="189" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ189"/>
-    </row>
-    <row r="190" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA189"/>
+    </row>
+    <row r="190" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ190"/>
-    </row>
-    <row r="191" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA190"/>
+    </row>
+    <row r="191" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ191"/>
-    </row>
-    <row r="192" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA191"/>
+    </row>
+    <row r="192" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ192"/>
-    </row>
-    <row r="193" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA192"/>
+    </row>
+    <row r="193" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ193"/>
-    </row>
-    <row r="194" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA193"/>
+    </row>
+    <row r="194" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ194"/>
-    </row>
-    <row r="195" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA194"/>
+    </row>
+    <row r="195" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ195"/>
-    </row>
-    <row r="196" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA195"/>
+    </row>
+    <row r="196" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ196"/>
-    </row>
-    <row r="197" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA196"/>
+    </row>
+    <row r="197" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ197"/>
-    </row>
-    <row r="198" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA197"/>
+    </row>
+    <row r="198" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ198"/>
-    </row>
-    <row r="199" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA198"/>
+    </row>
+    <row r="199" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ199"/>
-    </row>
-    <row r="200" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA199"/>
+    </row>
+    <row r="200" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ200"/>
-    </row>
-    <row r="201" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA200"/>
+    </row>
+    <row r="201" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ201"/>
-    </row>
-    <row r="202" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA201"/>
+    </row>
+    <row r="202" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ202"/>
-    </row>
-    <row r="203" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA202"/>
+    </row>
+    <row r="203" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ203"/>
-    </row>
-    <row r="204" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA203"/>
+    </row>
+    <row r="204" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ204"/>
-    </row>
-    <row r="205" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA204"/>
+    </row>
+    <row r="205" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ205"/>
-    </row>
-    <row r="206" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA205"/>
+    </row>
+    <row r="206" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ206"/>
-    </row>
-    <row r="207" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA206"/>
+    </row>
+    <row r="207" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ207"/>
-    </row>
-    <row r="208" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA207"/>
+    </row>
+    <row r="208" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ208"/>
-    </row>
-    <row r="209" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA208"/>
+    </row>
+    <row r="209" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ209"/>
-    </row>
-    <row r="210" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA209"/>
+    </row>
+    <row r="210" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ210"/>
-    </row>
-    <row r="211" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA210"/>
+    </row>
+    <row r="211" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ211"/>
-    </row>
-    <row r="212" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA211"/>
+    </row>
+    <row r="212" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ212"/>
-    </row>
-    <row r="213" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA212"/>
+    </row>
+    <row r="213" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ213"/>
-    </row>
-    <row r="214" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA213"/>
+    </row>
+    <row r="214" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ214"/>
-    </row>
-    <row r="215" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA214"/>
+    </row>
+    <row r="215" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ215"/>
-    </row>
-    <row r="216" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA215"/>
+    </row>
+    <row r="216" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ216"/>
-    </row>
-    <row r="217" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA216"/>
+    </row>
+    <row r="217" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ217"/>
-    </row>
-    <row r="218" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA217"/>
+    </row>
+    <row r="218" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ218"/>
-    </row>
-    <row r="219" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA218"/>
+    </row>
+    <row r="219" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ219"/>
-    </row>
-    <row r="220" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA219"/>
+    </row>
+    <row r="220" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ220"/>
-    </row>
-    <row r="221" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA220"/>
+    </row>
+    <row r="221" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ221"/>
-    </row>
-    <row r="222" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA221"/>
+    </row>
+    <row r="222" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ222"/>
-    </row>
-    <row r="223" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA222"/>
+    </row>
+    <row r="223" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ223"/>
-    </row>
-    <row r="224" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA223"/>
+    </row>
+    <row r="224" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ224"/>
-    </row>
-    <row r="225" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA224"/>
+    </row>
+    <row r="225" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ225"/>
-    </row>
-    <row r="226" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA225"/>
+    </row>
+    <row r="226" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ226"/>
-    </row>
-    <row r="227" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA226"/>
+    </row>
+    <row r="227" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ227"/>
-    </row>
-    <row r="228" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA227"/>
+    </row>
+    <row r="228" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ228"/>
-    </row>
-    <row r="229" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA228"/>
+    </row>
+    <row r="229" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ229"/>
-    </row>
-    <row r="230" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA229"/>
+    </row>
+    <row r="230" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ230"/>
-    </row>
-    <row r="231" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA230"/>
+    </row>
+    <row r="231" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ231"/>
-    </row>
-    <row r="232" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA231"/>
+    </row>
+    <row r="232" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ232"/>
-    </row>
-    <row r="233" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA232"/>
+    </row>
+    <row r="233" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ233"/>
-    </row>
-    <row r="234" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA233"/>
+    </row>
+    <row r="234" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ234"/>
-    </row>
-    <row r="235" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA234"/>
+    </row>
+    <row r="235" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ235"/>
-    </row>
-    <row r="236" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA235"/>
+    </row>
+    <row r="236" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ236"/>
-    </row>
-    <row r="237" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA236"/>
+    </row>
+    <row r="237" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ237"/>
-    </row>
-    <row r="238" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA237"/>
+    </row>
+    <row r="238" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ238"/>
-    </row>
-    <row r="239" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA238"/>
+    </row>
+    <row r="239" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ239"/>
-    </row>
-    <row r="240" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA239"/>
+    </row>
+    <row r="240" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ240"/>
-    </row>
-    <row r="241" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA240"/>
+    </row>
+    <row r="241" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ241"/>
-    </row>
-    <row r="242" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA241"/>
+    </row>
+    <row r="242" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ242"/>
-    </row>
-    <row r="243" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA242"/>
+    </row>
+    <row r="243" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ243"/>
-    </row>
-    <row r="244" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA243"/>
+    </row>
+    <row r="244" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ244"/>
-    </row>
-    <row r="245" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA244"/>
+    </row>
+    <row r="245" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ245"/>
-    </row>
-    <row r="246" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA245"/>
+    </row>
+    <row r="246" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ246"/>
-    </row>
-    <row r="247" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA246"/>
+    </row>
+    <row r="247" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ247"/>
-    </row>
-    <row r="248" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA247"/>
+    </row>
+    <row r="248" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ248"/>
-    </row>
-    <row r="249" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA248"/>
+    </row>
+    <row r="249" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ249"/>
-    </row>
-    <row r="250" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA249"/>
+    </row>
+    <row r="250" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ250"/>
-    </row>
-    <row r="251" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA250"/>
+    </row>
+    <row r="251" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ251"/>
-    </row>
-    <row r="252" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA251"/>
+    </row>
+    <row r="252" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ252"/>
-    </row>
-    <row r="253" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA252"/>
+    </row>
+    <row r="253" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ253"/>
-    </row>
-    <row r="254" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA253"/>
+    </row>
+    <row r="254" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ254"/>
-    </row>
-    <row r="255" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA254"/>
+    </row>
+    <row r="255" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ255"/>
-    </row>
-    <row r="256" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA255"/>
+    </row>
+    <row r="256" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ256"/>
-    </row>
-    <row r="257" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA256"/>
+    </row>
+    <row r="257" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ257"/>
-    </row>
-    <row r="258" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA257"/>
+    </row>
+    <row r="258" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ258"/>
-    </row>
-    <row r="259" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA258"/>
+    </row>
+    <row r="259" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ259"/>
-    </row>
-    <row r="260" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA259"/>
+    </row>
+    <row r="260" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ260"/>
-    </row>
-    <row r="261" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA260"/>
+    </row>
+    <row r="261" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ261"/>
-    </row>
-    <row r="262" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA261"/>
+    </row>
+    <row r="262" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ262"/>
-    </row>
-    <row r="263" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA262"/>
+    </row>
+    <row r="263" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ263"/>
-    </row>
-    <row r="264" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA263"/>
+    </row>
+    <row r="264" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ264"/>
-    </row>
-    <row r="265" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA264"/>
+    </row>
+    <row r="265" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ265"/>
-    </row>
-    <row r="266" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA265"/>
+    </row>
+    <row r="266" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ266"/>
-    </row>
-    <row r="267" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA266"/>
+    </row>
+    <row r="267" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ267"/>
-    </row>
-    <row r="268" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA267"/>
+    </row>
+    <row r="268" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ268"/>
-    </row>
-    <row r="269" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA268"/>
+    </row>
+    <row r="269" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ269"/>
-    </row>
-    <row r="270" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA269"/>
+    </row>
+    <row r="270" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ270"/>
-    </row>
-    <row r="271" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA270"/>
+    </row>
+    <row r="271" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ271"/>
-    </row>
-    <row r="272" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA271"/>
+    </row>
+    <row r="272" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ272"/>
-    </row>
-    <row r="273" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA272"/>
+    </row>
+    <row r="273" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ273"/>
-    </row>
-    <row r="274" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA273"/>
+    </row>
+    <row r="274" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ274"/>
-    </row>
-    <row r="275" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA274"/>
+    </row>
+    <row r="275" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ275"/>
-    </row>
-    <row r="276" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA275"/>
+    </row>
+    <row r="276" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ276"/>
-    </row>
-    <row r="277" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA276"/>
+    </row>
+    <row r="277" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ277"/>
-    </row>
-    <row r="278" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA277"/>
+    </row>
+    <row r="278" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ278"/>
-    </row>
-    <row r="279" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA278"/>
+    </row>
+    <row r="279" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ279"/>
-    </row>
-    <row r="280" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA279"/>
+    </row>
+    <row r="280" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ280"/>
-    </row>
-    <row r="281" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA280"/>
+    </row>
+    <row r="281" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ281"/>
-    </row>
-    <row r="282" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA281"/>
+    </row>
+    <row r="282" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ282"/>
-    </row>
-    <row r="283" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA282"/>
+    </row>
+    <row r="283" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ283"/>
-    </row>
-    <row r="284" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA283"/>
+    </row>
+    <row r="284" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ284"/>
-    </row>
-    <row r="285" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA284"/>
+    </row>
+    <row r="285" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ285"/>
-    </row>
-    <row r="286" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA285"/>
+    </row>
+    <row r="286" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ286"/>
-    </row>
-    <row r="287" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA286"/>
+    </row>
+    <row r="287" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ287"/>
-    </row>
-    <row r="288" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA287"/>
+    </row>
+    <row r="288" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ288"/>
-    </row>
-    <row r="289" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA288"/>
+    </row>
+    <row r="289" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ289"/>
-    </row>
-    <row r="290" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA289"/>
+    </row>
+    <row r="290" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ290"/>
-    </row>
-    <row r="291" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA290"/>
+    </row>
+    <row r="291" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ291"/>
-    </row>
-    <row r="292" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA291"/>
+    </row>
+    <row r="292" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ292"/>
-    </row>
-    <row r="293" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA292"/>
+    </row>
+    <row r="293" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ293"/>
-    </row>
-    <row r="294" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA293"/>
+    </row>
+    <row r="294" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ294"/>
-    </row>
-    <row r="295" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA294"/>
+    </row>
+    <row r="295" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ295"/>
-    </row>
-    <row r="296" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA295"/>
+    </row>
+    <row r="296" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ296"/>
-    </row>
-    <row r="297" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA296"/>
+    </row>
+    <row r="297" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ297"/>
-    </row>
-    <row r="298" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA297"/>
+    </row>
+    <row r="298" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ298"/>
-    </row>
-    <row r="299" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA298"/>
+    </row>
+    <row r="299" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ299"/>
-    </row>
-    <row r="300" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA299"/>
+    </row>
+    <row r="300" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ300"/>
-    </row>
-    <row r="301" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA300"/>
+    </row>
+    <row r="301" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ301"/>
-    </row>
-    <row r="302" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA301"/>
+    </row>
+    <row r="302" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ302"/>
-    </row>
-    <row r="303" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA302"/>
+    </row>
+    <row r="303" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ303"/>
-    </row>
-    <row r="304" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA303"/>
+    </row>
+    <row r="304" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ304"/>
-    </row>
-    <row r="305" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA304"/>
+    </row>
+    <row r="305" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ305"/>
-    </row>
-    <row r="306" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA305"/>
+    </row>
+    <row r="306" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ306"/>
-    </row>
-    <row r="307" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA306"/>
+    </row>
+    <row r="307" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ307"/>
-    </row>
-    <row r="308" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA307"/>
+    </row>
+    <row r="308" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ308"/>
-    </row>
-    <row r="309" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA308"/>
+    </row>
+    <row r="309" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ309"/>
-    </row>
-    <row r="310" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA309"/>
+    </row>
+    <row r="310" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ310"/>
-    </row>
-    <row r="311" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA310"/>
+    </row>
+    <row r="311" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ311"/>
-    </row>
-    <row r="312" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA311"/>
+    </row>
+    <row r="312" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ312"/>
-    </row>
-    <row r="313" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA312"/>
+    </row>
+    <row r="313" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ313"/>
-    </row>
-    <row r="314" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA313"/>
+    </row>
+    <row r="314" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ314"/>
-    </row>
-    <row r="315" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA314"/>
+    </row>
+    <row r="315" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ315"/>
-    </row>
-    <row r="316" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA315"/>
+    </row>
+    <row r="316" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ316"/>
-    </row>
-    <row r="317" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA316"/>
+    </row>
+    <row r="317" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ317"/>
-    </row>
-    <row r="318" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA317"/>
+    </row>
+    <row r="318" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ318"/>
-    </row>
-    <row r="319" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA318"/>
+    </row>
+    <row r="319" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ319"/>
-    </row>
-    <row r="320" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA319"/>
+    </row>
+    <row r="320" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ320"/>
-    </row>
-    <row r="321" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA320"/>
+    </row>
+    <row r="321" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ321"/>
-    </row>
-    <row r="322" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA321"/>
+    </row>
+    <row r="322" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ322"/>
-    </row>
-    <row r="323" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA322"/>
+    </row>
+    <row r="323" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ323"/>
-    </row>
-    <row r="324" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA323"/>
+    </row>
+    <row r="324" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ324"/>
-    </row>
-    <row r="325" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA324"/>
+    </row>
+    <row r="325" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ325"/>
-    </row>
-    <row r="326" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA325"/>
+    </row>
+    <row r="326" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ326"/>
-    </row>
-    <row r="327" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA326"/>
+    </row>
+    <row r="327" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ327"/>
-    </row>
-    <row r="328" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA327"/>
+    </row>
+    <row r="328" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ328"/>
-    </row>
-    <row r="329" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA328"/>
+    </row>
+    <row r="329" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ329"/>
-    </row>
-    <row r="330" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA329"/>
+    </row>
+    <row r="330" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ330"/>
-    </row>
-    <row r="331" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA330"/>
+    </row>
+    <row r="331" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ331"/>
-    </row>
-    <row r="332" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA331"/>
+    </row>
+    <row r="332" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ332"/>
-    </row>
-    <row r="333" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA332"/>
+    </row>
+    <row r="333" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ333"/>
-    </row>
-    <row r="334" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA333"/>
+    </row>
+    <row r="334" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ334"/>
-    </row>
-    <row r="335" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA334"/>
+    </row>
+    <row r="335" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ335"/>
-    </row>
-    <row r="336" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA335"/>
+    </row>
+    <row r="336" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ336"/>
-    </row>
-    <row r="337" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA336"/>
+    </row>
+    <row r="337" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ337"/>
-    </row>
-    <row r="338" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA337"/>
+    </row>
+    <row r="338" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ338"/>
-    </row>
-    <row r="339" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA338"/>
+    </row>
+    <row r="339" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ339"/>
-    </row>
-    <row r="340" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA339"/>
+    </row>
+    <row r="340" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ340"/>
-    </row>
-    <row r="341" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA340"/>
+    </row>
+    <row r="341" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ341"/>
-    </row>
-    <row r="342" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA341"/>
+    </row>
+    <row r="342" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ342"/>
-    </row>
-    <row r="343" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA342"/>
+    </row>
+    <row r="343" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ343"/>
-    </row>
-    <row r="344" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA343"/>
+    </row>
+    <row r="344" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ344"/>
-    </row>
-    <row r="345" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA344"/>
+    </row>
+    <row r="345" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ345"/>
-    </row>
-    <row r="346" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA345"/>
+    </row>
+    <row r="346" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ346"/>
-    </row>
-    <row r="347" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA346"/>
+    </row>
+    <row r="347" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ347"/>
-    </row>
-    <row r="348" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA347"/>
+    </row>
+    <row r="348" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ348"/>
-    </row>
-    <row r="349" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA348"/>
+    </row>
+    <row r="349" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ349"/>
-    </row>
-    <row r="350" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA349"/>
+    </row>
+    <row r="350" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ350"/>
-    </row>
-    <row r="351" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA350"/>
+    </row>
+    <row r="351" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ351"/>
-    </row>
-    <row r="352" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA351"/>
+    </row>
+    <row r="352" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ352"/>
-    </row>
-    <row r="353" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA352"/>
+    </row>
+    <row r="353" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ353"/>
-    </row>
-    <row r="354" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA353"/>
+    </row>
+    <row r="354" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ354"/>
-    </row>
-    <row r="355" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA354"/>
+    </row>
+    <row r="355" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ355"/>
-    </row>
-    <row r="356" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA355"/>
+    </row>
+    <row r="356" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ356"/>
-    </row>
-    <row r="357" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA356"/>
+    </row>
+    <row r="357" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ357"/>
-    </row>
-    <row r="358" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA357"/>
+    </row>
+    <row r="358" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ358"/>
-    </row>
-    <row r="359" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA358"/>
+    </row>
+    <row r="359" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ359"/>
-    </row>
-    <row r="360" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA359"/>
+    </row>
+    <row r="360" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ360"/>
-    </row>
-    <row r="361" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA360"/>
+    </row>
+    <row r="361" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ361"/>
-    </row>
-    <row r="362" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA361"/>
+    </row>
+    <row r="362" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ362"/>
-    </row>
-    <row r="363" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA362"/>
+    </row>
+    <row r="363" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ363"/>
-    </row>
-    <row r="364" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA363"/>
+    </row>
+    <row r="364" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ364"/>
-    </row>
-    <row r="365" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA364"/>
+    </row>
+    <row r="365" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ365"/>
-    </row>
-    <row r="366" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA365"/>
+    </row>
+    <row r="366" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ366"/>
-    </row>
-    <row r="367" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA366"/>
+    </row>
+    <row r="367" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ367"/>
-    </row>
-    <row r="368" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA367"/>
+    </row>
+    <row r="368" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ368"/>
-    </row>
-    <row r="369" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA368"/>
+    </row>
+    <row r="369" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ369"/>
-    </row>
-    <row r="370" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA369"/>
+    </row>
+    <row r="370" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ370"/>
-    </row>
-    <row r="371" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA370"/>
+    </row>
+    <row r="371" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ371"/>
-    </row>
-    <row r="372" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA371"/>
+    </row>
+    <row r="372" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ372"/>
-    </row>
-    <row r="373" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA372"/>
+    </row>
+    <row r="373" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ373"/>
-    </row>
-    <row r="374" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA373"/>
+    </row>
+    <row r="374" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ374"/>
-    </row>
-    <row r="375" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA374"/>
+    </row>
+    <row r="375" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ375"/>
-    </row>
-    <row r="376" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA375"/>
+    </row>
+    <row r="376" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ376"/>
-    </row>
-    <row r="377" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA376"/>
+    </row>
+    <row r="377" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ377"/>
-    </row>
-    <row r="378" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA377"/>
+    </row>
+    <row r="378" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ378"/>
-    </row>
-    <row r="379" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA378"/>
+    </row>
+    <row r="379" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ379"/>
-    </row>
-    <row r="380" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA379"/>
+    </row>
+    <row r="380" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ380"/>
-    </row>
-    <row r="381" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA380"/>
+    </row>
+    <row r="381" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ381"/>
-    </row>
-    <row r="382" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA381"/>
+    </row>
+    <row r="382" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ382"/>
-    </row>
-    <row r="383" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA382"/>
+    </row>
+    <row r="383" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ383"/>
-    </row>
-    <row r="384" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA383"/>
+    </row>
+    <row r="384" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ384"/>
-    </row>
-    <row r="385" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA384"/>
+    </row>
+    <row r="385" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ385"/>
-    </row>
-    <row r="386" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA385"/>
+    </row>
+    <row r="386" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ386"/>
-    </row>
-    <row r="387" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA386"/>
+    </row>
+    <row r="387" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ387"/>
-    </row>
-    <row r="388" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA387"/>
+    </row>
+    <row r="388" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ388"/>
-    </row>
-    <row r="389" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA388"/>
+    </row>
+    <row r="389" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ389"/>
-    </row>
-    <row r="390" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA389"/>
+    </row>
+    <row r="390" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ390"/>
-    </row>
-    <row r="391" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA390"/>
+    </row>
+    <row r="391" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ391"/>
-    </row>
-    <row r="392" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA391"/>
+    </row>
+    <row r="392" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ392"/>
-    </row>
-    <row r="393" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA392"/>
+    </row>
+    <row r="393" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ393"/>
-    </row>
-    <row r="394" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA393"/>
+    </row>
+    <row r="394" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ394"/>
-    </row>
-    <row r="395" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA394"/>
+    </row>
+    <row r="395" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ395"/>
-    </row>
-    <row r="396" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA395"/>
+    </row>
+    <row r="396" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ396"/>
-    </row>
-    <row r="397" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA396"/>
+    </row>
+    <row r="397" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ397"/>
-    </row>
-    <row r="398" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA397"/>
+    </row>
+    <row r="398" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ398"/>
-    </row>
-    <row r="399" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA398"/>
+    </row>
+    <row r="399" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ399"/>
-    </row>
-    <row r="400" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA399"/>
+    </row>
+    <row r="400" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ400"/>
-    </row>
-    <row r="401" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA400"/>
+    </row>
+    <row r="401" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ401"/>
-    </row>
-    <row r="402" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA401"/>
+    </row>
+    <row r="402" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ402"/>
-    </row>
-    <row r="403" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA402"/>
+    </row>
+    <row r="403" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ403"/>
-    </row>
-    <row r="404" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA403"/>
+    </row>
+    <row r="404" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ404"/>
-    </row>
-    <row r="405" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA404"/>
+    </row>
+    <row r="405" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ405"/>
-    </row>
-    <row r="406" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA405"/>
+    </row>
+    <row r="406" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ406"/>
-    </row>
-    <row r="407" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA406"/>
+    </row>
+    <row r="407" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ407"/>
-    </row>
-    <row r="408" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA407"/>
+    </row>
+    <row r="408" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ408"/>
-    </row>
-    <row r="409" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA408"/>
+    </row>
+    <row r="409" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ409"/>
-    </row>
-    <row r="410" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA409"/>
+    </row>
+    <row r="410" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ410"/>
-    </row>
-    <row r="411" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA410"/>
+    </row>
+    <row r="411" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ411"/>
-    </row>
-    <row r="412" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA411"/>
+    </row>
+    <row r="412" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ412"/>
-    </row>
-    <row r="413" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA412"/>
+    </row>
+    <row r="413" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ413"/>
-    </row>
-    <row r="414" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA413"/>
+    </row>
+    <row r="414" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ414"/>
-    </row>
-    <row r="415" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA414"/>
+    </row>
+    <row r="415" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ415"/>
-    </row>
-    <row r="416" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA415"/>
+    </row>
+    <row r="416" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ416"/>
-    </row>
-    <row r="417" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA416"/>
+    </row>
+    <row r="417" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ417"/>
-    </row>
-    <row r="418" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA417"/>
+    </row>
+    <row r="418" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ418"/>
-    </row>
-    <row r="419" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA418"/>
+    </row>
+    <row r="419" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ419"/>
-    </row>
-    <row r="420" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA419"/>
+    </row>
+    <row r="420" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ420"/>
-    </row>
-    <row r="421" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA420"/>
+    </row>
+    <row r="421" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ421"/>
-    </row>
-    <row r="422" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA421"/>
+    </row>
+    <row r="422" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ422"/>
-    </row>
-    <row r="423" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA422"/>
+    </row>
+    <row r="423" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ423"/>
-    </row>
-    <row r="424" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA423"/>
+    </row>
+    <row r="424" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ424"/>
-    </row>
-    <row r="425" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA424"/>
+    </row>
+    <row r="425" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ425"/>
-    </row>
-    <row r="426" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA425"/>
+    </row>
+    <row r="426" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ426"/>
-    </row>
-    <row r="427" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA426"/>
+    </row>
+    <row r="427" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ427"/>
-    </row>
-    <row r="428" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA427"/>
+    </row>
+    <row r="428" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ428"/>
-    </row>
-    <row r="429" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA428"/>
+    </row>
+    <row r="429" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ429"/>
-    </row>
-    <row r="430" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA429"/>
+    </row>
+    <row r="430" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ430"/>
-    </row>
-    <row r="431" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA430"/>
+    </row>
+    <row r="431" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ431"/>
-    </row>
-    <row r="432" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA431"/>
+    </row>
+    <row r="432" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ432"/>
-    </row>
-    <row r="433" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA432"/>
+    </row>
+    <row r="433" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ433"/>
-    </row>
-    <row r="434" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA433"/>
+    </row>
+    <row r="434" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ434"/>
-    </row>
-    <row r="435" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA434"/>
+    </row>
+    <row r="435" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ435"/>
-    </row>
-    <row r="436" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA435"/>
+    </row>
+    <row r="436" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ436"/>
-    </row>
-    <row r="437" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA436"/>
+    </row>
+    <row r="437" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ437"/>
-    </row>
-    <row r="438" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA437"/>
+    </row>
+    <row r="438" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ438"/>
-    </row>
-    <row r="439" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA438"/>
+    </row>
+    <row r="439" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ439"/>
-    </row>
-    <row r="440" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA439"/>
+    </row>
+    <row r="440" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ440"/>
-    </row>
-    <row r="441" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA440"/>
+    </row>
+    <row r="441" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ441"/>
-    </row>
-    <row r="442" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA441"/>
+    </row>
+    <row r="442" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ442"/>
-    </row>
-    <row r="443" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA442"/>
+    </row>
+    <row r="443" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ443"/>
-    </row>
-    <row r="444" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA443"/>
+    </row>
+    <row r="444" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ444"/>
-    </row>
-    <row r="445" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA444"/>
+    </row>
+    <row r="445" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ445"/>
-    </row>
-    <row r="446" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA445"/>
+    </row>
+    <row r="446" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ446"/>
-    </row>
-    <row r="447" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA446"/>
+    </row>
+    <row r="447" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ447"/>
-    </row>
-    <row r="448" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA447"/>
+    </row>
+    <row r="448" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ448"/>
-    </row>
-    <row r="449" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA448"/>
+    </row>
+    <row r="449" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ449"/>
-    </row>
-    <row r="450" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA449"/>
+    </row>
+    <row r="450" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ450"/>
-    </row>
-    <row r="451" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA450"/>
+    </row>
+    <row r="451" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ451"/>
-    </row>
-    <row r="452" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA451"/>
+    </row>
+    <row r="452" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ452"/>
-    </row>
-    <row r="453" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA452"/>
+    </row>
+    <row r="453" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ453"/>
-    </row>
-    <row r="454" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA453"/>
+    </row>
+    <row r="454" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ454"/>
-    </row>
-    <row r="455" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA454"/>
+    </row>
+    <row r="455" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ455"/>
-    </row>
-    <row r="456" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA455"/>
+    </row>
+    <row r="456" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ456"/>
-    </row>
-    <row r="457" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA456"/>
+    </row>
+    <row r="457" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ457"/>
-    </row>
-    <row r="458" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA457"/>
+    </row>
+    <row r="458" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ458"/>
-    </row>
-    <row r="459" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA458"/>
+    </row>
+    <row r="459" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ459"/>
-    </row>
-    <row r="460" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA459"/>
+    </row>
+    <row r="460" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ460"/>
-    </row>
-    <row r="461" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA460"/>
+    </row>
+    <row r="461" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ461"/>
-    </row>
-    <row r="462" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA461"/>
+    </row>
+    <row r="462" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ462"/>
-    </row>
-    <row r="463" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA462"/>
+    </row>
+    <row r="463" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ463"/>
-    </row>
-    <row r="464" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA463"/>
+    </row>
+    <row r="464" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ464"/>
-    </row>
-    <row r="465" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA464"/>
+    </row>
+    <row r="465" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ465"/>
-    </row>
-    <row r="466" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA465"/>
+    </row>
+    <row r="466" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ466"/>
-    </row>
-    <row r="467" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA466"/>
+    </row>
+    <row r="467" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ467"/>
-    </row>
-    <row r="468" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA467"/>
+    </row>
+    <row r="468" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ468"/>
-    </row>
-    <row r="469" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA468"/>
+    </row>
+    <row r="469" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ469"/>
-    </row>
-    <row r="470" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA469"/>
+    </row>
+    <row r="470" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ470"/>
-    </row>
-    <row r="471" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA470"/>
+    </row>
+    <row r="471" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ471"/>
-    </row>
-    <row r="472" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA471"/>
+    </row>
+    <row r="472" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ472"/>
-    </row>
-    <row r="473" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA472"/>
+    </row>
+    <row r="473" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ473"/>
-    </row>
-    <row r="474" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA473"/>
+    </row>
+    <row r="474" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ474"/>
-    </row>
-    <row r="475" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA474"/>
+    </row>
+    <row r="475" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ475"/>
-    </row>
-    <row r="476" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA475"/>
+    </row>
+    <row r="476" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ476"/>
-    </row>
-    <row r="477" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA476"/>
+    </row>
+    <row r="477" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ477"/>
-    </row>
-    <row r="478" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA477"/>
+    </row>
+    <row r="478" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ478"/>
-    </row>
-    <row r="479" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA478"/>
+    </row>
+    <row r="479" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ479"/>
-    </row>
-    <row r="480" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA479"/>
+    </row>
+    <row r="480" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ480"/>
-    </row>
-    <row r="481" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA480"/>
+    </row>
+    <row r="481" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ481"/>
-    </row>
-    <row r="482" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA481"/>
+    </row>
+    <row r="482" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ482"/>
-    </row>
-    <row r="483" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA482"/>
+    </row>
+    <row r="483" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ483"/>
-    </row>
-    <row r="484" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA483"/>
+    </row>
+    <row r="484" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ484"/>
-    </row>
-    <row r="485" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA484"/>
+    </row>
+    <row r="485" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ485"/>
-    </row>
-    <row r="486" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA485"/>
+    </row>
+    <row r="486" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ486"/>
-    </row>
-    <row r="487" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA486"/>
+    </row>
+    <row r="487" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ487"/>
-    </row>
-    <row r="488" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA487"/>
+    </row>
+    <row r="488" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ488"/>
-    </row>
-    <row r="489" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA488"/>
+    </row>
+    <row r="489" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ489"/>
-    </row>
-    <row r="490" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA489"/>
+    </row>
+    <row r="490" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ490"/>
-    </row>
-    <row r="491" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA490"/>
+    </row>
+    <row r="491" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ491"/>
-    </row>
-    <row r="492" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA491"/>
+    </row>
+    <row r="492" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ492"/>
-    </row>
-    <row r="493" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA492"/>
+    </row>
+    <row r="493" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ493"/>
-    </row>
-    <row r="494" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA493"/>
+    </row>
+    <row r="494" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ494"/>
-    </row>
-    <row r="495" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA494"/>
+    </row>
+    <row r="495" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ495"/>
-    </row>
-    <row r="496" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA495"/>
+    </row>
+    <row r="496" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ496"/>
-    </row>
-    <row r="497" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA496"/>
+    </row>
+    <row r="497" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ497"/>
-    </row>
-    <row r="498" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA497"/>
+    </row>
+    <row r="498" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ498"/>
-    </row>
-    <row r="499" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA498"/>
+    </row>
+    <row r="499" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ499"/>
-    </row>
-    <row r="500" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA499"/>
+    </row>
+    <row r="500" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ500"/>
-    </row>
-    <row r="501" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA500"/>
+    </row>
+    <row r="501" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ501"/>
-    </row>
-    <row r="502" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA501"/>
+    </row>
+    <row r="502" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ502"/>
-    </row>
-    <row r="503" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA502"/>
+    </row>
+    <row r="503" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ503"/>
-    </row>
-    <row r="504" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA503"/>
+    </row>
+    <row r="504" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ504"/>
-    </row>
-    <row r="505" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA504"/>
+    </row>
+    <row r="505" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ505"/>
-    </row>
-    <row r="506" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA505"/>
+    </row>
+    <row r="506" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ506"/>
-    </row>
-    <row r="507" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA506"/>
+    </row>
+    <row r="507" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ507"/>
-    </row>
-    <row r="508" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA507"/>
+    </row>
+    <row r="508" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ508"/>
-    </row>
-    <row r="509" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA508"/>
+    </row>
+    <row r="509" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ509"/>
-    </row>
-    <row r="510" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA509"/>
+    </row>
+    <row r="510" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ510"/>
-    </row>
-    <row r="511" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA510"/>
+    </row>
+    <row r="511" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ511"/>
-    </row>
-    <row r="512" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA511"/>
+    </row>
+    <row r="512" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ512"/>
-    </row>
-    <row r="513" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA512"/>
+    </row>
+    <row r="513" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ513"/>
-    </row>
-    <row r="514" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA513"/>
+    </row>
+    <row r="514" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ514"/>
-    </row>
-    <row r="515" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA514"/>
+    </row>
+    <row r="515" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ515"/>
-    </row>
-    <row r="516" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA515"/>
+    </row>
+    <row r="516" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ516"/>
-    </row>
-    <row r="517" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA516"/>
+    </row>
+    <row r="517" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ517"/>
-    </row>
-    <row r="518" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA517"/>
+    </row>
+    <row r="518" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ518"/>
-    </row>
-    <row r="519" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA518"/>
+    </row>
+    <row r="519" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ519"/>
-    </row>
-    <row r="520" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA519"/>
+    </row>
+    <row r="520" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ520"/>
-    </row>
-    <row r="521" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA520"/>
+    </row>
+    <row r="521" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ521"/>
-    </row>
-    <row r="522" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA521"/>
+    </row>
+    <row r="522" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ522"/>
-    </row>
-    <row r="523" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA522"/>
+    </row>
+    <row r="523" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ523"/>
-    </row>
-    <row r="524" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA523"/>
+    </row>
+    <row r="524" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ524"/>
-    </row>
-    <row r="525" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA524"/>
+    </row>
+    <row r="525" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ525"/>
-    </row>
-    <row r="526" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA525"/>
+    </row>
+    <row r="526" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ526"/>
-    </row>
-    <row r="527" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA526"/>
+    </row>
+    <row r="527" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ527"/>
-    </row>
-    <row r="528" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA527"/>
+    </row>
+    <row r="528" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ528"/>
-    </row>
-    <row r="529" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA528"/>
+    </row>
+    <row r="529" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ529"/>
-    </row>
-    <row r="530" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA529"/>
+    </row>
+    <row r="530" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ530"/>
-    </row>
-    <row r="531" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA530"/>
+    </row>
+    <row r="531" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ531"/>
-    </row>
-    <row r="532" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA531"/>
+    </row>
+    <row r="532" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ532"/>
-    </row>
-    <row r="533" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA532"/>
+    </row>
+    <row r="533" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ533"/>
-    </row>
-    <row r="534" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA533"/>
+    </row>
+    <row r="534" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ534"/>
-    </row>
-    <row r="535" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA534"/>
+    </row>
+    <row r="535" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ535"/>
-    </row>
-    <row r="536" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA535"/>
+    </row>
+    <row r="536" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ536"/>
-    </row>
-    <row r="537" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA536"/>
+    </row>
+    <row r="537" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ537"/>
-    </row>
-    <row r="538" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA537"/>
+    </row>
+    <row r="538" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ538"/>
-    </row>
-    <row r="539" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA538"/>
+    </row>
+    <row r="539" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ539"/>
-    </row>
-    <row r="540" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA539"/>
+    </row>
+    <row r="540" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ540"/>
-    </row>
-    <row r="541" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA540"/>
+    </row>
+    <row r="541" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ541"/>
-    </row>
-    <row r="542" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA541"/>
+    </row>
+    <row r="542" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ542"/>
-    </row>
-    <row r="543" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA542"/>
+    </row>
+    <row r="543" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ543"/>
-    </row>
-    <row r="544" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA543"/>
+    </row>
+    <row r="544" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ544"/>
-    </row>
-    <row r="545" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA544"/>
+    </row>
+    <row r="545" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ545"/>
-    </row>
-    <row r="546" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA545"/>
+    </row>
+    <row r="546" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ546"/>
-    </row>
-    <row r="547" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA546"/>
+    </row>
+    <row r="547" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ547"/>
-    </row>
-    <row r="548" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA547"/>
+    </row>
+    <row r="548" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ548"/>
-    </row>
-    <row r="549" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA548"/>
+    </row>
+    <row r="549" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ549"/>
-    </row>
-    <row r="550" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA549"/>
+    </row>
+    <row r="550" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ550"/>
-    </row>
-    <row r="551" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA550"/>
+    </row>
+    <row r="551" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ551"/>
-    </row>
-    <row r="552" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA551"/>
+    </row>
+    <row r="552" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ552"/>
-    </row>
-    <row r="553" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA552"/>
+    </row>
+    <row r="553" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ553"/>
-    </row>
-    <row r="554" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA553"/>
+    </row>
+    <row r="554" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ554"/>
-    </row>
-    <row r="555" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA554"/>
+    </row>
+    <row r="555" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ555"/>
-    </row>
-    <row r="556" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA555"/>
+    </row>
+    <row r="556" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ556"/>
-    </row>
-    <row r="557" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA556"/>
+    </row>
+    <row r="557" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ557"/>
-    </row>
-    <row r="558" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA557"/>
+    </row>
+    <row r="558" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ558"/>
-    </row>
-    <row r="559" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA558"/>
+    </row>
+    <row r="559" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ559"/>
-    </row>
-    <row r="560" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA559"/>
+    </row>
+    <row r="560" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ560"/>
-    </row>
-    <row r="561" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA560"/>
+    </row>
+    <row r="561" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ561"/>
-    </row>
-    <row r="562" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA561"/>
+    </row>
+    <row r="562" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ562"/>
-    </row>
-    <row r="563" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA562"/>
+    </row>
+    <row r="563" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ563"/>
-    </row>
-    <row r="564" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA563"/>
+    </row>
+    <row r="564" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ564"/>
-    </row>
-    <row r="565" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA564"/>
+    </row>
+    <row r="565" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ565"/>
-    </row>
-    <row r="566" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA565"/>
+    </row>
+    <row r="566" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ566"/>
-    </row>
-    <row r="567" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA566"/>
+    </row>
+    <row r="567" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ567"/>
-    </row>
-    <row r="568" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA567"/>
+    </row>
+    <row r="568" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ568"/>
-    </row>
-    <row r="569" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA568"/>
+    </row>
+    <row r="569" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ569"/>
-    </row>
-    <row r="570" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA569"/>
+    </row>
+    <row r="570" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ570"/>
-    </row>
-    <row r="571" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA570"/>
+    </row>
+    <row r="571" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ571"/>
-    </row>
-    <row r="572" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA571"/>
+    </row>
+    <row r="572" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ572"/>
-    </row>
-    <row r="573" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA572"/>
+    </row>
+    <row r="573" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ573"/>
-    </row>
-    <row r="574" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA573"/>
+    </row>
+    <row r="574" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ574"/>
-    </row>
-    <row r="575" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA574"/>
+    </row>
+    <row r="575" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ575"/>
-    </row>
-    <row r="576" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA575"/>
+    </row>
+    <row r="576" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ576"/>
-    </row>
-    <row r="577" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA576"/>
+    </row>
+    <row r="577" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ577"/>
-    </row>
-    <row r="578" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA577"/>
+    </row>
+    <row r="578" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ578"/>
-    </row>
-    <row r="579" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA578"/>
+    </row>
+    <row r="579" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ579"/>
-    </row>
-    <row r="580" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA579"/>
+    </row>
+    <row r="580" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ580"/>
-    </row>
-    <row r="581" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA580"/>
+    </row>
+    <row r="581" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ581"/>
-    </row>
-    <row r="582" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA581"/>
+    </row>
+    <row r="582" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ582"/>
-    </row>
-    <row r="583" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA582"/>
+    </row>
+    <row r="583" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ583"/>
-    </row>
-    <row r="584" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA583"/>
+    </row>
+    <row r="584" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ584"/>
-    </row>
-    <row r="585" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA584"/>
+    </row>
+    <row r="585" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ585"/>
-    </row>
-    <row r="586" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA585"/>
+    </row>
+    <row r="586" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ586"/>
-    </row>
-    <row r="587" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA586"/>
+    </row>
+    <row r="587" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ587"/>
-    </row>
-    <row r="588" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA587"/>
+    </row>
+    <row r="588" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ588"/>
-    </row>
-    <row r="589" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA588"/>
+    </row>
+    <row r="589" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ589"/>
-    </row>
-    <row r="590" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA589"/>
+    </row>
+    <row r="590" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ590"/>
-    </row>
-    <row r="591" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA590"/>
+    </row>
+    <row r="591" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ591"/>
-    </row>
-    <row r="592" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA591"/>
+    </row>
+    <row r="592" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ592"/>
-    </row>
-    <row r="593" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA592"/>
+    </row>
+    <row r="593" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ593"/>
-    </row>
-    <row r="594" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA593"/>
+    </row>
+    <row r="594" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ594"/>
-    </row>
-    <row r="595" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA594"/>
+    </row>
+    <row r="595" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ595"/>
-    </row>
-    <row r="596" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA595"/>
+    </row>
+    <row r="596" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ596"/>
-    </row>
-    <row r="597" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA596"/>
+    </row>
+    <row r="597" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ597"/>
-    </row>
-    <row r="598" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA597"/>
+    </row>
+    <row r="598" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ598"/>
-    </row>
-    <row r="599" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA598"/>
+    </row>
+    <row r="599" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ599"/>
-    </row>
-    <row r="600" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA599"/>
+    </row>
+    <row r="600" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ600"/>
-    </row>
-    <row r="601" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA600"/>
+    </row>
+    <row r="601" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ601"/>
-    </row>
-    <row r="602" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA601"/>
+    </row>
+    <row r="602" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ602"/>
-    </row>
-    <row r="603" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA602"/>
+    </row>
+    <row r="603" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ603"/>
-    </row>
-    <row r="604" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA603"/>
+    </row>
+    <row r="604" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ604"/>
-    </row>
-    <row r="605" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA604"/>
+    </row>
+    <row r="605" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ605"/>
-    </row>
-    <row r="606" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA605"/>
+    </row>
+    <row r="606" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ606"/>
-    </row>
-    <row r="607" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA606"/>
+    </row>
+    <row r="607" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ607"/>
-    </row>
-    <row r="608" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA607"/>
+    </row>
+    <row r="608" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ608"/>
-    </row>
-    <row r="609" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA608"/>
+    </row>
+    <row r="609" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ609"/>
-    </row>
-    <row r="610" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA609"/>
+    </row>
+    <row r="610" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ610"/>
-    </row>
-    <row r="611" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA610"/>
+    </row>
+    <row r="611" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ611"/>
-    </row>
-    <row r="612" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA611"/>
+    </row>
+    <row r="612" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ612"/>
-    </row>
-    <row r="613" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA612"/>
+    </row>
+    <row r="613" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ613"/>
-    </row>
-    <row r="614" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA613"/>
+    </row>
+    <row r="614" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ614"/>
-    </row>
-    <row r="615" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA614"/>
+    </row>
+    <row r="615" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ615"/>
-    </row>
-    <row r="616" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA615"/>
+    </row>
+    <row r="616" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ616"/>
-    </row>
-    <row r="617" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA616"/>
+    </row>
+    <row r="617" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ617"/>
-    </row>
-    <row r="618" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA617"/>
+    </row>
+    <row r="618" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ618"/>
-    </row>
-    <row r="619" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA618"/>
+    </row>
+    <row r="619" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ619"/>
-    </row>
-    <row r="620" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA619"/>
+    </row>
+    <row r="620" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ620"/>
-    </row>
-    <row r="621" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA620"/>
+    </row>
+    <row r="621" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ621"/>
-    </row>
-    <row r="622" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA621"/>
+    </row>
+    <row r="622" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ622"/>
-    </row>
-    <row r="623" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA622"/>
+    </row>
+    <row r="623" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ623"/>
-    </row>
-    <row r="624" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA623"/>
+    </row>
+    <row r="624" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ624"/>
-    </row>
-    <row r="625" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA624"/>
+    </row>
+    <row r="625" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ625"/>
-    </row>
-    <row r="626" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA625"/>
+    </row>
+    <row r="626" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ626"/>
-    </row>
-    <row r="627" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA626"/>
+    </row>
+    <row r="627" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ627"/>
-    </row>
-    <row r="628" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA627"/>
+    </row>
+    <row r="628" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ628"/>
-    </row>
-    <row r="629" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA628"/>
+    </row>
+    <row r="629" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ629"/>
-    </row>
-    <row r="630" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA629"/>
+    </row>
+    <row r="630" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ630"/>
-    </row>
-    <row r="631" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA630"/>
+    </row>
+    <row r="631" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ631"/>
-    </row>
-    <row r="632" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA631"/>
+    </row>
+    <row r="632" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ632"/>
-    </row>
-    <row r="633" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA632"/>
+    </row>
+    <row r="633" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ633"/>
-    </row>
-    <row r="634" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA633"/>
+    </row>
+    <row r="634" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ634"/>
-    </row>
-    <row r="635" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA634"/>
+    </row>
+    <row r="635" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ635"/>
-    </row>
-    <row r="636" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA635"/>
+    </row>
+    <row r="636" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ636"/>
-    </row>
-    <row r="637" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA636"/>
+    </row>
+    <row r="637" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ637"/>
-    </row>
-    <row r="638" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA637"/>
+    </row>
+    <row r="638" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ638"/>
-    </row>
-    <row r="639" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA638"/>
+    </row>
+    <row r="639" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ639"/>
-    </row>
-    <row r="640" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA639"/>
+    </row>
+    <row r="640" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ640"/>
-    </row>
-    <row r="641" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA640"/>
+    </row>
+    <row r="641" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ641"/>
-    </row>
-    <row r="642" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA641"/>
+    </row>
+    <row r="642" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ642"/>
-    </row>
-    <row r="643" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA642"/>
+    </row>
+    <row r="643" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ643"/>
-    </row>
-    <row r="644" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA643"/>
+    </row>
+    <row r="644" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ644"/>
-    </row>
-    <row r="645" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA644"/>
+    </row>
+    <row r="645" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ645"/>
-    </row>
-    <row r="646" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA645"/>
+    </row>
+    <row r="646" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ646"/>
-    </row>
-    <row r="647" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA646"/>
+    </row>
+    <row r="647" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ647"/>
-    </row>
-    <row r="648" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA647"/>
+    </row>
+    <row r="648" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ648"/>
-    </row>
-    <row r="649" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA648"/>
+    </row>
+    <row r="649" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ649"/>
-    </row>
-    <row r="650" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA649"/>
+    </row>
+    <row r="650" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ650"/>
-    </row>
-    <row r="651" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA650"/>
+    </row>
+    <row r="651" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ651"/>
-    </row>
-    <row r="652" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA651"/>
+    </row>
+    <row r="652" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ652"/>
-    </row>
-    <row r="653" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA652"/>
+    </row>
+    <row r="653" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ653"/>
-    </row>
-    <row r="654" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA653"/>
+    </row>
+    <row r="654" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ654"/>
-    </row>
-    <row r="655" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA654"/>
+    </row>
+    <row r="655" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ655"/>
-    </row>
-    <row r="656" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA655"/>
+    </row>
+    <row r="656" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ656"/>
-    </row>
-    <row r="657" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA656"/>
+    </row>
+    <row r="657" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ657"/>
-    </row>
-    <row r="658" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA657"/>
+    </row>
+    <row r="658" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ658"/>
-    </row>
-    <row r="659" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA658"/>
+    </row>
+    <row r="659" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ659"/>
-    </row>
-    <row r="660" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA659"/>
+    </row>
+    <row r="660" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ660"/>
-    </row>
-    <row r="661" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA660"/>
+    </row>
+    <row r="661" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ661"/>
-    </row>
-    <row r="662" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA661"/>
+    </row>
+    <row r="662" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ662"/>
-    </row>
-    <row r="663" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA662"/>
+    </row>
+    <row r="663" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ663"/>
-    </row>
-    <row r="664" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA663"/>
+    </row>
+    <row r="664" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ664"/>
-    </row>
-    <row r="665" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA664"/>
+    </row>
+    <row r="665" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ665"/>
-    </row>
-    <row r="666" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA665"/>
+    </row>
+    <row r="666" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ666"/>
-    </row>
-    <row r="667" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA666"/>
+    </row>
+    <row r="667" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ667"/>
-    </row>
-    <row r="668" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA667"/>
+    </row>
+    <row r="668" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ668"/>
-    </row>
-    <row r="669" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA668"/>
+    </row>
+    <row r="669" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ669"/>
-    </row>
-    <row r="670" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA669"/>
+    </row>
+    <row r="670" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ670"/>
-    </row>
-    <row r="671" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA670"/>
+    </row>
+    <row r="671" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ671"/>
-    </row>
-    <row r="672" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA671"/>
+    </row>
+    <row r="672" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ672"/>
-    </row>
-    <row r="673" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA672"/>
+    </row>
+    <row r="673" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ673"/>
-    </row>
-    <row r="674" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA673"/>
+    </row>
+    <row r="674" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ674"/>
-    </row>
-    <row r="675" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA674"/>
+    </row>
+    <row r="675" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ675"/>
-    </row>
-    <row r="676" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA675"/>
+    </row>
+    <row r="676" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ676"/>
-    </row>
-    <row r="677" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA676"/>
+    </row>
+    <row r="677" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ677"/>
-    </row>
-    <row r="678" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA677"/>
+    </row>
+    <row r="678" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ678"/>
-    </row>
-    <row r="679" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA678"/>
+    </row>
+    <row r="679" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ679"/>
-    </row>
-    <row r="680" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA679"/>
+    </row>
+    <row r="680" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ680"/>
-    </row>
-    <row r="681" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA680"/>
+    </row>
+    <row r="681" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ681"/>
-    </row>
-    <row r="682" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA681"/>
+    </row>
+    <row r="682" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ682"/>
-    </row>
-    <row r="683" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA682"/>
+    </row>
+    <row r="683" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ683"/>
-    </row>
-    <row r="684" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA683"/>
+    </row>
+    <row r="684" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ684"/>
-    </row>
-    <row r="685" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA684"/>
+    </row>
+    <row r="685" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ685"/>
-    </row>
-    <row r="686" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA685"/>
+    </row>
+    <row r="686" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ686"/>
-    </row>
-    <row r="687" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA686"/>
+    </row>
+    <row r="687" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ687"/>
-    </row>
-    <row r="688" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA687"/>
+    </row>
+    <row r="688" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ688"/>
-    </row>
-    <row r="689" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA688"/>
+    </row>
+    <row r="689" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ689"/>
-    </row>
-    <row r="690" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA689"/>
+    </row>
+    <row r="690" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ690"/>
-    </row>
-    <row r="691" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA690"/>
+    </row>
+    <row r="691" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ691"/>
-    </row>
-    <row r="692" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA691"/>
+    </row>
+    <row r="692" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ692"/>
-    </row>
-    <row r="693" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA692"/>
+    </row>
+    <row r="693" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ693"/>
-    </row>
-    <row r="694" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA693"/>
+    </row>
+    <row r="694" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ694"/>
-    </row>
-    <row r="695" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA694"/>
+    </row>
+    <row r="695" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ695"/>
-    </row>
-    <row r="696" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA695"/>
+    </row>
+    <row r="696" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ696"/>
-    </row>
-    <row r="697" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA696"/>
+    </row>
+    <row r="697" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ697"/>
-    </row>
-    <row r="698" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA697"/>
+    </row>
+    <row r="698" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ698"/>
-    </row>
-    <row r="699" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA698"/>
+    </row>
+    <row r="699" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ699"/>
-    </row>
-    <row r="700" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA699"/>
+    </row>
+    <row r="700" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ700"/>
-    </row>
-    <row r="701" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA700"/>
+    </row>
+    <row r="701" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ701"/>
-    </row>
-    <row r="702" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA701"/>
+    </row>
+    <row r="702" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ702"/>
-    </row>
-    <row r="703" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA702"/>
+    </row>
+    <row r="703" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ703"/>
-    </row>
-    <row r="704" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA703"/>
+    </row>
+    <row r="704" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ704"/>
-    </row>
-    <row r="705" spans="130:130" x14ac:dyDescent="0.25">
+      <c r="EA704"/>
+    </row>
+    <row r="705" spans="130:131" x14ac:dyDescent="0.25">
       <c r="DZ705"/>
+      <c r="EA705"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Export/Sari_Cases_18.xlsx
+++ b/Template/Export/Sari_Cases_18.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73465A07-765F-4530-AD41-D2F8D84E492A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -724,12 +733,57 @@
   </si>
   <si>
     <t>ICU</t>
+  </si>
+  <si>
+    <t>reason_not_sampling</t>
+  </si>
+  <si>
+    <t>reason_not_sampling_other</t>
+  </si>
+  <si>
+    <t>why_not_processed_other</t>
+  </si>
+  <si>
+    <t>process1_other_virus</t>
+  </si>
+  <si>
+    <t>process1_other2_virus</t>
+  </si>
+  <si>
+    <t>process2_other_virus</t>
+  </si>
+  <si>
+    <t>process2_other2_virus</t>
+  </si>
+  <si>
+    <t>process3_other_virus</t>
+  </si>
+  <si>
+    <t>process3_other2_virus</t>
+  </si>
+  <si>
+    <t>process4_other_virus</t>
+  </si>
+  <si>
+    <t>process4_other2_virus</t>
+  </si>
+  <si>
+    <t>process5_other_virus</t>
+  </si>
+  <si>
+    <t>process5_other2_virus</t>
+  </si>
+  <si>
+    <t>process6_other_virus</t>
+  </si>
+  <si>
+    <t>process6_other2_virus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -737,7 +791,7 @@
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,14 +802,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -806,9 +852,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -826,6 +871,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,7 +894,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -919,6 +969,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -954,6 +1021,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1129,28 +1213,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IA705"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IP705"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="FJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="FQ1" sqref="FQ1:IP1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="8" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1179,12 +1263,12 @@
     <col min="49" max="49" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.5703125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="14.5703125" style="1" customWidth="1"/>
     <col min="62" max="62" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1197,7 +1281,7 @@
     <col min="80" max="80" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="37.5703125" customWidth="1"/>
-    <col min="87" max="87" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="13.42578125" customWidth="1"/>
     <col min="95" max="95" width="5.7109375" customWidth="1"/>
@@ -1212,886 +1296,957 @@
     <col min="123" max="123" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="129" max="130" width="21" style="2" customWidth="1"/>
-    <col min="131" max="131" width="6.42578125" style="2" customWidth="1"/>
-    <col min="132" max="132" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="21" style="1" customWidth="1"/>
+    <col min="131" max="131" width="6.42578125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="9" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.5703125" style="2" customWidth="1"/>
+    <col min="134" max="134" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.5703125" style="1" customWidth="1"/>
     <col min="138" max="138" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="37.85546875" customWidth="1"/>
-    <col min="148" max="148" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="16.7109375" style="17" customWidth="1"/>
-    <col min="151" max="151" width="18.85546875" style="18" customWidth="1"/>
-    <col min="152" max="152" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="17.28515625" customWidth="1"/>
-    <col min="158" max="158" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="18" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="18" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="18" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="18.140625" customWidth="1"/>
-    <col min="217" max="217" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="18" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="15" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="17" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="19" customWidth="1"/>
+    <col min="142" max="142" width="24.5703125" customWidth="1"/>
+    <col min="143" max="143" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="21" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="37.85546875" customWidth="1"/>
+    <col min="150" max="150" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="16.7109375" style="16" customWidth="1"/>
+    <col min="153" max="153" width="18.85546875" style="17" customWidth="1"/>
+    <col min="154" max="154" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="17.28515625" customWidth="1"/>
+    <col min="161" max="161" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="22.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="19.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="18.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="16.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="15.42578125" style="20" customWidth="1"/>
+    <col min="184" max="184" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="17.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="16.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="22.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="20.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="17" style="20" bestFit="1" customWidth="1"/>
+    <col min="195" max="196" width="17" style="20" customWidth="1"/>
+    <col min="197" max="197" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="25.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="208" max="209" width="14.7109375" style="20" customWidth="1"/>
+    <col min="210" max="210" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="25.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="221" max="222" width="14.7109375" style="20" customWidth="1"/>
+    <col min="223" max="223" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="25.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="234" max="235" width="14.7109375" style="20" customWidth="1"/>
+    <col min="236" max="236" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="25.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="20" style="21" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="19.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="14.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="15.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="14.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="247" max="248" width="14.7109375" style="20" customWidth="1"/>
+    <col min="249" max="249" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:235" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:250" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BC1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BP1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BS1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BT1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BV1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="BX1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BY1" s="11" t="s">
+      <c r="BY1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CA1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CB1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CD1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CE1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CF1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CG1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CH1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CK1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CL1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CM1" s="11" t="s">
+      <c r="CM1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CN1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CO1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="CP1" s="11" t="s">
+      <c r="CP1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="CQ1" s="11" t="s">
+      <c r="CQ1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="CR1" s="11" t="s">
+      <c r="CR1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="CS1" s="11" t="s">
+      <c r="CS1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="CT1" s="11" t="s">
+      <c r="CT1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="CU1" s="11" t="s">
+      <c r="CU1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="CV1" s="11" t="s">
+      <c r="CV1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="CW1" s="11" t="s">
+      <c r="CW1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="CX1" s="11" t="s">
+      <c r="CX1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="CY1" s="11" t="s">
+      <c r="CY1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="CZ1" s="11" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DA1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="DB1" s="11" t="s">
+      <c r="DB1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="DC1" s="11" t="s">
+      <c r="DC1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="DD1" s="11" t="s">
+      <c r="DD1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="DE1" s="11" t="s">
+      <c r="DE1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="DF1" s="11" t="s">
+      <c r="DF1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="DG1" s="11" t="s">
+      <c r="DG1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="11" t="s">
+      <c r="DH1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="DI1" s="11" t="s">
+      <c r="DI1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="DJ1" s="11" t="s">
+      <c r="DJ1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="DK1" s="11" t="s">
+      <c r="DK1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="DL1" s="11" t="s">
+      <c r="DL1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="DM1" s="11" t="s">
+      <c r="DM1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="DN1" s="11" t="s">
+      <c r="DN1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="DO1" s="11" t="s">
+      <c r="DO1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="DP1" s="11" t="s">
+      <c r="DP1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="DQ1" s="11" t="s">
+      <c r="DQ1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="DR1" s="11" t="s">
+      <c r="DR1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="DS1" s="11" t="s">
+      <c r="DS1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DT1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DU1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DV1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DW1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DX1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DY1" s="11" t="s">
+      <c r="DY1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="DZ1" s="13" t="s">
+      <c r="DZ1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="EA1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EB1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EC1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="ED1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EE1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="EF1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EG1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="EH1" s="6" t="s">
+      <c r="EH1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EI1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EK1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="EM1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EN1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EO1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EP1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="ER1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="EQ1" s="6" t="s">
+      <c r="ES1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="ER1" s="15" t="s">
+      <c r="ET1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="ES1" s="16" t="s">
+      <c r="EU1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="ET1" s="16" t="s">
+      <c r="EV1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="EU1" s="16" t="s">
+      <c r="EW1" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="EV1" s="16" t="s">
+      <c r="EX1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="EW1" s="15" t="s">
+      <c r="EY1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="EZ1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="EX1" s="16" t="s">
+      <c r="FA1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="EY1" s="12" t="s">
+      <c r="FB1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="EZ1" s="12" t="s">
+      <c r="FC1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="FA1" s="12" t="s">
+      <c r="FD1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="FB1" s="12" t="s">
+      <c r="FE1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="FC1" s="12" t="s">
+      <c r="FF1" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="FD1" s="14" t="s">
+      <c r="FG1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="FE1" s="14" t="s">
+      <c r="FH1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="FF1" s="14" t="s">
+      <c r="FI1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="FG1" s="14" t="s">
+      <c r="FJ1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="FH1" s="14" t="s">
+      <c r="FK1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="FI1" s="12" t="s">
+      <c r="FL1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="FJ1" s="12" t="s">
+      <c r="FM1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="FK1" s="12" t="s">
+      <c r="FN1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="FL1" s="12" t="s">
+      <c r="FO1" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="FM1" s="12" t="s">
+      <c r="FP1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FQ1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FR1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="FP1" s="3" t="s">
+      <c r="FS1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FT1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="FR1" s="7" t="s">
+      <c r="FU1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FV1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FW1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FX1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FY1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="FZ1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="GA1" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="GB1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="GC1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="GD1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="FZ1" s="3" t="s">
+      <c r="GE1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GF1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GG1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GH1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GI1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GJ1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GK1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GL1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GM1" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="GN1" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="GO1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GP1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GQ1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GR1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GS1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GT1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GU1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GV1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GW1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GX1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GY1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GZ1" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="HA1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="HB1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="GT1" s="3" t="s">
+      <c r="HC1" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="HD1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="HE1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="HF1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="HG1" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="GY1" s="7" t="s">
+      <c r="HH1" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HI1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HJ1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HK1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HL1" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HM1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="HN1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="HO1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="HE1" s="3" t="s">
+      <c r="HP1" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HQ1" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HR1" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HS1" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HT1" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="HJ1" s="7" t="s">
+      <c r="HU1" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HV1" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="HL1" s="3" t="s">
+      <c r="HW1" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HX1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HY1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HZ1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="IA1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="IB1" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="IC1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="ID1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="IE1" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="IF1" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="IG1" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="HU1" s="7" t="s">
+      <c r="IH1" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="II1" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="IJ1" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="IK1" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="IL1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="IM1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="IN1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="IO1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="IA1" s="3" t="s">
+      <c r="IP1" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ2"/>
       <c r="EA2"/>
     </row>
-    <row r="3" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ3"/>
       <c r="EA3"/>
     </row>
-    <row r="4" spans="1:235" x14ac:dyDescent="0.25">
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="3"/>
+    <row r="4" spans="1:250" x14ac:dyDescent="0.25">
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="2"/>
       <c r="DZ4"/>
       <c r="EA4"/>
     </row>
-    <row r="5" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ5"/>
       <c r="EA5"/>
-    </row>
-    <row r="6" spans="1:235" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="FU5" s="22"/>
+      <c r="FV5" s="20"/>
+    </row>
+    <row r="6" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ6"/>
       <c r="EA6"/>
-      <c r="FQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="FU6" s="22"/>
+      <c r="FV6" s="20"/>
+    </row>
+    <row r="7" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ7"/>
       <c r="EA7"/>
-      <c r="FR7"/>
-      <c r="FS7"/>
-      <c r="GC7"/>
-      <c r="GD7"/>
-      <c r="GN7"/>
-      <c r="GO7"/>
-      <c r="GY7"/>
-      <c r="GZ7"/>
-      <c r="HJ7"/>
-      <c r="HK7"/>
-      <c r="HU7"/>
-      <c r="HV7"/>
-    </row>
-    <row r="8" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="FU7" s="22"/>
+      <c r="FV7" s="20"/>
+    </row>
+    <row r="8" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ8"/>
       <c r="EA8"/>
-    </row>
-    <row r="9" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="FU8" s="22"/>
+      <c r="FV8" s="20"/>
+      <c r="GH8" s="20"/>
+      <c r="GI8" s="20"/>
+      <c r="GU8" s="20"/>
+      <c r="GV8" s="20"/>
+      <c r="HH8" s="20"/>
+      <c r="HI8" s="20"/>
+      <c r="HU8" s="20"/>
+      <c r="HV8" s="20"/>
+      <c r="IH8" s="20"/>
+      <c r="II8" s="20"/>
+    </row>
+    <row r="9" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ9"/>
       <c r="EA9"/>
-    </row>
-    <row r="10" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="FU9" s="22"/>
+      <c r="FV9" s="20"/>
+    </row>
+    <row r="10" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ10"/>
       <c r="EA10"/>
-    </row>
-    <row r="11" spans="1:235" x14ac:dyDescent="0.25">
+      <c r="FU10" s="22"/>
+      <c r="FV10" s="20"/>
+    </row>
+    <row r="11" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ11"/>
       <c r="EA11"/>
     </row>
-    <row r="12" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ12"/>
       <c r="EA12"/>
     </row>
-    <row r="13" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ13"/>
       <c r="EA13"/>
     </row>
-    <row r="14" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ14"/>
       <c r="EA14"/>
     </row>
-    <row r="15" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ15"/>
       <c r="EA15"/>
     </row>
-    <row r="16" spans="1:235" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:250" x14ac:dyDescent="0.25">
       <c r="DZ16"/>
       <c r="EA16"/>
     </row>

--- a/Template/Export/Sari_Cases_18.xlsx
+++ b/Template/Export/Sari_Cases_18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907FE136-186F-4FC4-BB10-E86939E881FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -792,12 +793,24 @@
   </si>
   <si>
     <t>Dysgeusia</t>
+  </si>
+  <si>
+    <t>condition_discharge_evolution</t>
+  </si>
+  <si>
+    <t>condition_discharge_date_evolution</t>
+  </si>
+  <si>
+    <t>condition_discharge_other_evolution</t>
+  </si>
+  <si>
+    <t>death_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yyyy;@"/>
@@ -837,7 +850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +881,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -881,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -941,6 +960,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,7 +982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1034,6 +1057,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1069,6 +1109,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1244,15 +1301,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU705"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IY705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1363,113 +1420,117 @@
     <col min="138" max="138" width="9" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="12.5703125" style="1" customWidth="1"/>
-    <col min="143" max="143" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="19" customWidth="1"/>
-    <col min="147" max="147" width="24.5703125" customWidth="1"/>
-    <col min="148" max="148" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="21" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="37.85546875" customWidth="1"/>
-    <col min="155" max="155" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="16.7109375" style="6" customWidth="1"/>
-    <col min="158" max="158" width="18.85546875" style="7" customWidth="1"/>
-    <col min="159" max="159" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="17" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="17" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="17" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="17" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="187" max="188" width="15.42578125" style="8" customWidth="1"/>
-    <col min="189" max="189" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="17" style="8" bestFit="1" customWidth="1"/>
-    <col min="200" max="201" width="17" style="8" customWidth="1"/>
-    <col min="202" max="202" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="213" max="214" width="14.7109375" style="8" customWidth="1"/>
-    <col min="215" max="215" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="226" max="227" width="14.7109375" style="8" customWidth="1"/>
-    <col min="228" max="228" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="239" max="240" width="14.7109375" style="8" customWidth="1"/>
-    <col min="241" max="241" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="252" max="253" width="14.7109375" style="8" customWidth="1"/>
-    <col min="254" max="254" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="32.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="38.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="39.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="13.85546875" style="28" customWidth="1"/>
+    <col min="147" max="147" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="19" customWidth="1"/>
+    <col min="151" max="151" width="24.5703125" customWidth="1"/>
+    <col min="152" max="152" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="37.85546875" customWidth="1"/>
+    <col min="159" max="159" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="16.7109375" style="6" customWidth="1"/>
+    <col min="162" max="162" width="18.85546875" style="7" customWidth="1"/>
+    <col min="163" max="163" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="17" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="17" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="17" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="17" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="191" max="192" width="15.42578125" style="8" customWidth="1"/>
+    <col min="193" max="193" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="17.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="25.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="17" style="8" bestFit="1" customWidth="1"/>
+    <col min="204" max="205" width="17" style="8" customWidth="1"/>
+    <col min="206" max="206" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="217" max="218" width="14.7109375" style="8" customWidth="1"/>
+    <col min="219" max="219" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="230" max="231" width="14.7109375" style="8" customWidth="1"/>
+    <col min="232" max="232" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="243" max="244" width="14.7109375" style="8" customWidth="1"/>
+    <col min="245" max="245" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="22.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="256" max="257" width="14.7109375" style="8" customWidth="1"/>
+    <col min="258" max="258" width="17.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:259" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1893,358 +1954,370 @@
       <c r="EK1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="EL1" s="14" t="s">
+      <c r="EL1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="EM1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="EN1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="EO1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="EP1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="EM1" s="14" t="s">
+      <c r="EQ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="EN1" s="14" t="s">
+      <c r="ER1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="EO1" s="11" t="s">
+      <c r="ES1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="EP1" s="11" t="s">
+      <c r="ET1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="EQ1" s="11" t="s">
+      <c r="EU1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="ER1" s="12" t="s">
+      <c r="EV1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="ES1" s="11" t="s">
+      <c r="EW1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="ET1" s="13" t="s">
+      <c r="EX1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EY1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="EV1" s="11" t="s">
+      <c r="EZ1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="EW1" s="12" t="s">
+      <c r="FA1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="EX1" s="14" t="s">
+      <c r="FB1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="EY1" s="20" t="s">
+      <c r="FC1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="EZ1" s="21" t="s">
+      <c r="FD1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="FA1" s="21" t="s">
+      <c r="FE1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="FB1" s="21" t="s">
+      <c r="FF1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="FC1" s="21" t="s">
+      <c r="FG1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="FD1" s="21" t="s">
+      <c r="FH1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="FE1" s="20" t="s">
+      <c r="FI1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="FF1" s="21" t="s">
+      <c r="FJ1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="FG1" s="22" t="s">
+      <c r="FK1" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="FH1" s="22" t="s">
+      <c r="FL1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="FI1" s="22" t="s">
+      <c r="FM1" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="FJ1" s="22" t="s">
+      <c r="FN1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="FK1" s="22" t="s">
+      <c r="FO1" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="FL1" s="23" t="s">
+      <c r="FP1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="FM1" s="23" t="s">
+      <c r="FQ1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="FN1" s="23" t="s">
+      <c r="FR1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="FO1" s="23" t="s">
+      <c r="FS1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="FP1" s="23" t="s">
+      <c r="FT1" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="FQ1" s="22" t="s">
+      <c r="FU1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="FR1" s="22" t="s">
+      <c r="FV1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="FS1" s="22" t="s">
+      <c r="FW1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="FT1" s="22" t="s">
+      <c r="FX1" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="FU1" s="22" t="s">
+      <c r="FY1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="FV1" s="24" t="s">
+      <c r="FZ1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="FW1" s="24" t="s">
+      <c r="GA1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="FX1" s="24" t="s">
+      <c r="GB1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="FY1" s="24" t="s">
+      <c r="GC1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="FZ1" s="25" t="s">
+      <c r="GD1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="GA1" s="24" t="s">
+      <c r="GE1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="GB1" s="24" t="s">
+      <c r="GF1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="GC1" s="24" t="s">
+      <c r="GG1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="GD1" s="24" t="s">
+      <c r="GH1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="GE1" s="24" t="s">
+      <c r="GI1" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="GF1" s="24" t="s">
+      <c r="GJ1" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="GG1" s="24" t="s">
+      <c r="GK1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="GH1" s="24" t="s">
+      <c r="GL1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="GI1" s="24" t="s">
+      <c r="GM1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="GJ1" s="24" t="s">
+      <c r="GN1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="GK1" s="24" t="s">
+      <c r="GO1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="GL1" s="24" t="s">
+      <c r="GP1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="GM1" s="25" t="s">
+      <c r="GQ1" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="GN1" s="24" t="s">
+      <c r="GR1" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="GO1" s="24" t="s">
+      <c r="GS1" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="GP1" s="24" t="s">
+      <c r="GT1" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="GQ1" s="24" t="s">
+      <c r="GU1" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="GR1" s="24" t="s">
+      <c r="GV1" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="GS1" s="24" t="s">
+      <c r="GW1" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="GT1" s="24" t="s">
+      <c r="GX1" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="GU1" s="24" t="s">
+      <c r="GY1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="GV1" s="24" t="s">
+      <c r="GZ1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="GW1" s="24" t="s">
+      <c r="HA1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="GX1" s="24" t="s">
+      <c r="HB1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="GY1" s="24" t="s">
+      <c r="HC1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="GZ1" s="25" t="s">
+      <c r="HD1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="HA1" s="24" t="s">
+      <c r="HE1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="HB1" s="24" t="s">
+      <c r="HF1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="HC1" s="24" t="s">
+      <c r="HG1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="HD1" s="24" t="s">
+      <c r="HH1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="HE1" s="24" t="s">
+      <c r="HI1" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="HF1" s="24" t="s">
+      <c r="HJ1" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="HG1" s="24" t="s">
+      <c r="HK1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="HH1" s="24" t="s">
+      <c r="HL1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="HI1" s="24" t="s">
+      <c r="HM1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="HJ1" s="24" t="s">
+      <c r="HN1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="HK1" s="24" t="s">
+      <c r="HO1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="HL1" s="24" t="s">
+      <c r="HP1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="HM1" s="25" t="s">
+      <c r="HQ1" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="HN1" s="24" t="s">
+      <c r="HR1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="HO1" s="24" t="s">
+      <c r="HS1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="HP1" s="24" t="s">
+      <c r="HT1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="HQ1" s="24" t="s">
+      <c r="HU1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="HR1" s="24" t="s">
+      <c r="HV1" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="HS1" s="24" t="s">
+      <c r="HW1" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="HT1" s="24" t="s">
+      <c r="HX1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="HU1" s="24" t="s">
+      <c r="HY1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="HV1" s="24" t="s">
+      <c r="HZ1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="HW1" s="24" t="s">
+      <c r="IA1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="HX1" s="24" t="s">
+      <c r="IB1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="HY1" s="24" t="s">
+      <c r="IC1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="HZ1" s="25" t="s">
+      <c r="ID1" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="IA1" s="24" t="s">
+      <c r="IE1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="IB1" s="24" t="s">
+      <c r="IF1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="IC1" s="24" t="s">
+      <c r="IG1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="ID1" s="24" t="s">
+      <c r="IH1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="IE1" s="24" t="s">
+      <c r="II1" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="IF1" s="24" t="s">
+      <c r="IJ1" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="IG1" s="24" t="s">
+      <c r="IK1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="IH1" s="24" t="s">
+      <c r="IL1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="II1" s="24" t="s">
+      <c r="IM1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="IJ1" s="24" t="s">
+      <c r="IN1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="IK1" s="24" t="s">
+      <c r="IO1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="IL1" s="24" t="s">
+      <c r="IP1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="IM1" s="25" t="s">
+      <c r="IQ1" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="IN1" s="24" t="s">
+      <c r="IR1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="IO1" s="24" t="s">
+      <c r="IS1" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="IP1" s="24" t="s">
+      <c r="IT1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="IQ1" s="24" t="s">
+      <c r="IU1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="IR1" s="24" t="s">
+      <c r="IV1" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="IS1" s="24" t="s">
+      <c r="IW1" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="IT1" s="24" t="s">
+      <c r="IX1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="IU1" s="24" t="s">
+      <c r="IY1" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE2"/>
       <c r="EF2"/>
     </row>
-    <row r="3" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE3"/>
       <c r="EF3"/>
     </row>
-    <row r="4" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
       <c r="BC4" s="5"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="2"/>
@@ -2253,73 +2326,73 @@
       <c r="EE4"/>
       <c r="EF4"/>
     </row>
-    <row r="5" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE5"/>
       <c r="EF5"/>
-      <c r="FZ5" s="10"/>
-      <c r="GA5" s="8"/>
-    </row>
-    <row r="6" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="GD5" s="10"/>
+      <c r="GE5" s="8"/>
+    </row>
+    <row r="6" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE6"/>
       <c r="EF6"/>
-      <c r="FZ6" s="10"/>
-      <c r="GA6" s="8"/>
-    </row>
-    <row r="7" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="GD6" s="10"/>
+      <c r="GE6" s="8"/>
+    </row>
+    <row r="7" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE7"/>
       <c r="EF7"/>
-      <c r="FZ7" s="10"/>
-      <c r="GA7" s="8"/>
-    </row>
-    <row r="8" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="GD7" s="10"/>
+      <c r="GE7" s="8"/>
+    </row>
+    <row r="8" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE8"/>
       <c r="EF8"/>
-      <c r="FZ8" s="10"/>
-      <c r="GA8" s="8"/>
-      <c r="GM8" s="8"/>
-      <c r="GN8" s="8"/>
-      <c r="GZ8" s="8"/>
-      <c r="HA8" s="8"/>
-      <c r="HM8" s="8"/>
-      <c r="HN8" s="8"/>
-      <c r="HZ8" s="8"/>
-      <c r="IA8" s="8"/>
-      <c r="IM8" s="8"/>
-      <c r="IN8" s="8"/>
-    </row>
-    <row r="9" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="GD8" s="10"/>
+      <c r="GE8" s="8"/>
+      <c r="GQ8" s="8"/>
+      <c r="GR8" s="8"/>
+      <c r="HD8" s="8"/>
+      <c r="HE8" s="8"/>
+      <c r="HQ8" s="8"/>
+      <c r="HR8" s="8"/>
+      <c r="ID8" s="8"/>
+      <c r="IE8" s="8"/>
+      <c r="IQ8" s="8"/>
+      <c r="IR8" s="8"/>
+    </row>
+    <row r="9" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE9"/>
       <c r="EF9"/>
-      <c r="FZ9" s="10"/>
-      <c r="GA9" s="8"/>
-    </row>
-    <row r="10" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="GD9" s="10"/>
+      <c r="GE9" s="8"/>
+    </row>
+    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE10"/>
       <c r="EF10"/>
-      <c r="FZ10" s="10"/>
-      <c r="GA10" s="8"/>
-    </row>
-    <row r="11" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="GD10" s="10"/>
+      <c r="GE10" s="8"/>
+    </row>
+    <row r="11" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE11"/>
       <c r="EF11"/>
     </row>
-    <row r="12" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE12"/>
       <c r="EF12"/>
     </row>
-    <row r="13" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE13"/>
       <c r="EF13"/>
     </row>
-    <row r="14" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE14"/>
       <c r="EF14"/>
     </row>
-    <row r="15" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE15"/>
       <c r="EF15"/>
     </row>
-    <row r="16" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
       <c r="EE16"/>
       <c r="EF16"/>
     </row>
